--- a/datos_y_modelos/db/id_x_ipca_spread_futures/WLA_Index.xlsx
+++ b/datos_y_modelos/db/id_x_ipca_spread_futures/WLA_Index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bloomberglp-my.sharepoint.com/personal/tsiqueira4_bloomberg_com/Documents/Desktop/master_thesis_economics/datos_y_modelos/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bloomberglp-my.sharepoint.com/personal/tsiqueira4_bloomberg_com/Documents/Desktop/Tesis/spreads/datos_y_modelos/db/id_x_ipca_spread_futures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="8_{899ADE79-1991-460A-9756-00A551B45DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{071CB92A-CAB6-42FB-BB0F-B8CE5126F95C}"/>
   <bookViews>
-    <workbookView xWindow="-70" yWindow="10690" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{BA8C1A71-8C08-4864-883A-B407F035700A}"/>
+    <workbookView xWindow="5205" yWindow="1845" windowWidth="19245" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{BA8C1A71-8C08-4864-883A-B407F035700A}"/>
   </bookViews>
   <sheets>
     <sheet name="IPCA Spread Futures" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,7 +550,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -593,7 +593,7 @@
     <col min="43" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,16 +601,16 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="str">
         <f>_xll.BSRCH("fi:bra_sovereign_local_bonds","dir=h","cols=50;rows=1")</f>
         <v>id</v>
@@ -682,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" cm="1">
@@ -796,7 +796,7 @@
       <c r="AQ5" s="6"/>
       <c r="AR5" s="6"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -888,7 +888,7 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -980,7 +980,7 @@
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -1072,7 +1072,7 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -1164,7 +1164,7 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -1256,7 +1256,7 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1">
@@ -1348,7 +1348,7 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
@@ -1440,7 +1440,7 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -1532,7 +1532,7 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -1624,7 +1624,7 @@
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
@@ -1716,7 +1716,7 @@
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -1808,7 +1808,7 @@
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
@@ -1900,7 +1900,7 @@
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1">
@@ -1992,7 +1992,7 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
@@ -2084,7 +2084,7 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
@@ -2176,7 +2176,7 @@
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
@@ -2268,7 +2268,7 @@
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
@@ -2360,7 +2360,7 @@
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
@@ -2452,7 +2452,7 @@
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
@@ -2544,7 +2544,7 @@
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1">
@@ -2636,7 +2636,7 @@
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
@@ -2728,7 +2728,7 @@
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
@@ -2820,7 +2820,7 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1">
@@ -2912,7 +2912,7 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1">
@@ -3004,7 +3004,7 @@
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
@@ -3096,7 +3096,7 @@
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
@@ -3188,7 +3188,7 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1">
@@ -3280,7 +3280,7 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
@@ -3372,7 +3372,7 @@
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1">
@@ -3464,7 +3464,7 @@
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1">
@@ -3556,7 +3556,7 @@
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1">
@@ -3648,7 +3648,7 @@
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1">
@@ -3740,7 +3740,7 @@
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1">
@@ -3832,7 +3832,7 @@
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1">
@@ -3924,7 +3924,7 @@
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1">
@@ -4016,7 +4016,7 @@
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1">
@@ -4108,7 +4108,7 @@
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1">
@@ -4200,7 +4200,7 @@
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1">
@@ -4292,7 +4292,7 @@
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1">
@@ -4384,7 +4384,7 @@
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1">
@@ -4476,7 +4476,7 @@
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1">
@@ -4568,7 +4568,7 @@
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1">
@@ -4660,7 +4660,7 @@
       <c r="AQ47" s="2"/>
       <c r="AR47" s="2"/>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1">
@@ -4752,7 +4752,7 @@
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1">
@@ -4844,7 +4844,7 @@
       <c r="AQ49" s="2"/>
       <c r="AR49" s="2"/>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1">
@@ -4936,7 +4936,7 @@
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1">
@@ -5028,7 +5028,7 @@
       <c r="AQ51" s="2"/>
       <c r="AR51" s="2"/>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1">
@@ -5120,7 +5120,7 @@
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1">
@@ -5212,7 +5212,7 @@
       <c r="AQ53" s="2"/>
       <c r="AR53" s="2"/>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1">
@@ -5304,7 +5304,7 @@
       <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1">
@@ -5396,7 +5396,7 @@
       <c r="AQ55" s="2"/>
       <c r="AR55" s="2"/>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1">
@@ -5488,7 +5488,7 @@
       <c r="AQ56" s="2"/>
       <c r="AR56" s="2"/>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1">
@@ -5580,7 +5580,7 @@
       <c r="AQ57" s="2"/>
       <c r="AR57" s="2"/>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1">
@@ -5672,7 +5672,7 @@
       <c r="AQ58" s="2"/>
       <c r="AR58" s="2"/>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1">
@@ -5764,7 +5764,7 @@
       <c r="AQ59" s="2"/>
       <c r="AR59" s="2"/>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1">
@@ -5856,7 +5856,7 @@
       <c r="AQ60" s="2"/>
       <c r="AR60" s="2"/>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1">
@@ -5948,7 +5948,7 @@
       <c r="AQ61" s="2"/>
       <c r="AR61" s="2"/>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1">
@@ -6040,7 +6040,7 @@
       <c r="AQ62" s="2"/>
       <c r="AR62" s="2"/>
     </row>
-    <row r="63" spans="1:44">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1">
@@ -6132,7 +6132,7 @@
       <c r="AQ63" s="2"/>
       <c r="AR63" s="2"/>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1">
@@ -6224,7 +6224,7 @@
       <c r="AQ64" s="2"/>
       <c r="AR64" s="2"/>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1">
@@ -6316,7 +6316,7 @@
       <c r="AQ65" s="2"/>
       <c r="AR65" s="2"/>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1">
@@ -6408,7 +6408,7 @@
       <c r="AQ66" s="2"/>
       <c r="AR66" s="2"/>
     </row>
-    <row r="67" spans="1:44">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1">
@@ -6500,7 +6500,7 @@
       <c r="AQ67" s="2"/>
       <c r="AR67" s="2"/>
     </row>
-    <row r="68" spans="1:44">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1">
@@ -6592,7 +6592,7 @@
       <c r="AQ68" s="2"/>
       <c r="AR68" s="2"/>
     </row>
-    <row r="69" spans="1:44">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1">
@@ -6684,7 +6684,7 @@
       <c r="AQ69" s="2"/>
       <c r="AR69" s="2"/>
     </row>
-    <row r="70" spans="1:44">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1">
@@ -6776,7 +6776,7 @@
       <c r="AQ70" s="2"/>
       <c r="AR70" s="2"/>
     </row>
-    <row r="71" spans="1:44">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1">
@@ -6868,7 +6868,7 @@
       <c r="AQ71" s="2"/>
       <c r="AR71" s="2"/>
     </row>
-    <row r="72" spans="1:44">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1">
@@ -6960,7 +6960,7 @@
       <c r="AQ72" s="2"/>
       <c r="AR72" s="2"/>
     </row>
-    <row r="73" spans="1:44">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1">
@@ -7052,7 +7052,7 @@
       <c r="AQ73" s="2"/>
       <c r="AR73" s="2"/>
     </row>
-    <row r="74" spans="1:44">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1">
@@ -7144,7 +7144,7 @@
       <c r="AQ74" s="2"/>
       <c r="AR74" s="2"/>
     </row>
-    <row r="75" spans="1:44">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1">
@@ -7236,7 +7236,7 @@
       <c r="AQ75" s="2"/>
       <c r="AR75" s="2"/>
     </row>
-    <row r="76" spans="1:44">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1">
@@ -7328,7 +7328,7 @@
       <c r="AQ76" s="2"/>
       <c r="AR76" s="2"/>
     </row>
-    <row r="77" spans="1:44">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1">
@@ -7420,7 +7420,7 @@
       <c r="AQ77" s="2"/>
       <c r="AR77" s="2"/>
     </row>
-    <row r="78" spans="1:44">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1">
@@ -7512,7 +7512,7 @@
       <c r="AQ78" s="2"/>
       <c r="AR78" s="2"/>
     </row>
-    <row r="79" spans="1:44">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1">
@@ -7604,7 +7604,7 @@
       <c r="AQ79" s="2"/>
       <c r="AR79" s="2"/>
     </row>
-    <row r="80" spans="1:44">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1">
@@ -7696,7 +7696,7 @@
       <c r="AQ80" s="2"/>
       <c r="AR80" s="2"/>
     </row>
-    <row r="81" spans="1:44">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1">
@@ -7788,7 +7788,7 @@
       <c r="AQ81" s="2"/>
       <c r="AR81" s="2"/>
     </row>
-    <row r="82" spans="1:44">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1">
@@ -7880,7 +7880,7 @@
       <c r="AQ82" s="2"/>
       <c r="AR82" s="2"/>
     </row>
-    <row r="83" spans="1:44">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1">
@@ -7972,7 +7972,7 @@
       <c r="AQ83" s="2"/>
       <c r="AR83" s="2"/>
     </row>
-    <row r="84" spans="1:44">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1">
@@ -8064,7 +8064,7 @@
       <c r="AQ84" s="2"/>
       <c r="AR84" s="2"/>
     </row>
-    <row r="85" spans="1:44">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1">
@@ -8156,7 +8156,7 @@
       <c r="AQ85" s="2"/>
       <c r="AR85" s="2"/>
     </row>
-    <row r="86" spans="1:44">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1">
@@ -8248,7 +8248,7 @@
       <c r="AQ86" s="2"/>
       <c r="AR86" s="2"/>
     </row>
-    <row r="87" spans="1:44">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1">
@@ -8340,7 +8340,7 @@
       <c r="AQ87" s="2"/>
       <c r="AR87" s="2"/>
     </row>
-    <row r="88" spans="1:44">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1">
@@ -8432,7 +8432,7 @@
       <c r="AQ88" s="2"/>
       <c r="AR88" s="2"/>
     </row>
-    <row r="89" spans="1:44">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1">
@@ -8524,7 +8524,7 @@
       <c r="AQ89" s="2"/>
       <c r="AR89" s="2"/>
     </row>
-    <row r="90" spans="1:44">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1">
@@ -8616,7 +8616,7 @@
       <c r="AQ90" s="2"/>
       <c r="AR90" s="2"/>
     </row>
-    <row r="91" spans="1:44">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1">
@@ -8708,7 +8708,7 @@
       <c r="AQ91" s="2"/>
       <c r="AR91" s="2"/>
     </row>
-    <row r="92" spans="1:44">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1">
@@ -8800,7 +8800,7 @@
       <c r="AQ92" s="2"/>
       <c r="AR92" s="2"/>
     </row>
-    <row r="93" spans="1:44">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1">
@@ -8892,7 +8892,7 @@
       <c r="AQ93" s="2"/>
       <c r="AR93" s="2"/>
     </row>
-    <row r="94" spans="1:44">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1">
@@ -8984,7 +8984,7 @@
       <c r="AQ94" s="2"/>
       <c r="AR94" s="2"/>
     </row>
-    <row r="95" spans="1:44">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1">
@@ -9076,7 +9076,7 @@
       <c r="AQ95" s="2"/>
       <c r="AR95" s="2"/>
     </row>
-    <row r="96" spans="1:44">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1">
@@ -9168,7 +9168,7 @@
       <c r="AQ96" s="2"/>
       <c r="AR96" s="2"/>
     </row>
-    <row r="97" spans="1:44">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1">
@@ -9260,7 +9260,7 @@
       <c r="AQ97" s="2"/>
       <c r="AR97" s="2"/>
     </row>
-    <row r="98" spans="1:44">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1">
@@ -9352,7 +9352,7 @@
       <c r="AQ98" s="2"/>
       <c r="AR98" s="2"/>
     </row>
-    <row r="99" spans="1:44">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1">
@@ -9444,7 +9444,7 @@
       <c r="AQ99" s="2"/>
       <c r="AR99" s="2"/>
     </row>
-    <row r="100" spans="1:44">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1">
@@ -9536,7 +9536,7 @@
       <c r="AQ100" s="2"/>
       <c r="AR100" s="2"/>
     </row>
-    <row r="101" spans="1:44">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1">
@@ -9628,7 +9628,7 @@
       <c r="AQ101" s="2"/>
       <c r="AR101" s="2"/>
     </row>
-    <row r="102" spans="1:44">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1">
@@ -9720,7 +9720,7 @@
       <c r="AQ102" s="2"/>
       <c r="AR102" s="2"/>
     </row>
-    <row r="103" spans="1:44">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1">
@@ -9812,7 +9812,7 @@
       <c r="AQ103" s="2"/>
       <c r="AR103" s="2"/>
     </row>
-    <row r="104" spans="1:44">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1">
@@ -9904,7 +9904,7 @@
       <c r="AQ104" s="2"/>
       <c r="AR104" s="2"/>
     </row>
-    <row r="105" spans="1:44">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1">
@@ -9996,7 +9996,7 @@
       <c r="AQ105" s="2"/>
       <c r="AR105" s="2"/>
     </row>
-    <row r="106" spans="1:44">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1">
@@ -10088,7 +10088,7 @@
       <c r="AQ106" s="2"/>
       <c r="AR106" s="2"/>
     </row>
-    <row r="107" spans="1:44">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1">
@@ -10180,7 +10180,7 @@
       <c r="AQ107" s="2"/>
       <c r="AR107" s="2"/>
     </row>
-    <row r="108" spans="1:44">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1">
@@ -10272,7 +10272,7 @@
       <c r="AQ108" s="2"/>
       <c r="AR108" s="2"/>
     </row>
-    <row r="109" spans="1:44">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1">
@@ -10364,7 +10364,7 @@
       <c r="AQ109" s="2"/>
       <c r="AR109" s="2"/>
     </row>
-    <row r="110" spans="1:44">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1">
@@ -10456,7 +10456,7 @@
       <c r="AQ110" s="2"/>
       <c r="AR110" s="2"/>
     </row>
-    <row r="111" spans="1:44">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1">
@@ -10548,7 +10548,7 @@
       <c r="AQ111" s="2"/>
       <c r="AR111" s="2"/>
     </row>
-    <row r="112" spans="1:44">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1">
@@ -10640,7 +10640,7 @@
       <c r="AQ112" s="2"/>
       <c r="AR112" s="2"/>
     </row>
-    <row r="113" spans="1:44">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1">
@@ -10732,7 +10732,7 @@
       <c r="AQ113" s="2"/>
       <c r="AR113" s="2"/>
     </row>
-    <row r="114" spans="1:44">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1">
@@ -10824,7 +10824,7 @@
       <c r="AQ114" s="2"/>
       <c r="AR114" s="2"/>
     </row>
-    <row r="115" spans="1:44">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1">
@@ -10916,7 +10916,7 @@
       <c r="AQ115" s="2"/>
       <c r="AR115" s="2"/>
     </row>
-    <row r="116" spans="1:44">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1">
@@ -11008,7 +11008,7 @@
       <c r="AQ116" s="2"/>
       <c r="AR116" s="2"/>
     </row>
-    <row r="117" spans="1:44">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1">
@@ -11100,7 +11100,7 @@
       <c r="AQ117" s="2"/>
       <c r="AR117" s="2"/>
     </row>
-    <row r="118" spans="1:44">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1">
@@ -11192,7 +11192,7 @@
       <c r="AQ118" s="2"/>
       <c r="AR118" s="2"/>
     </row>
-    <row r="119" spans="1:44">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1">
@@ -11284,7 +11284,7 @@
       <c r="AQ119" s="2"/>
       <c r="AR119" s="2"/>
     </row>
-    <row r="120" spans="1:44">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1">
@@ -11376,7 +11376,7 @@
       <c r="AQ120" s="2"/>
       <c r="AR120" s="2"/>
     </row>
-    <row r="121" spans="1:44">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1">
@@ -11468,7 +11468,7 @@
       <c r="AQ121" s="2"/>
       <c r="AR121" s="2"/>
     </row>
-    <row r="122" spans="1:44">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1">
@@ -11560,7 +11560,7 @@
       <c r="AQ122" s="2"/>
       <c r="AR122" s="2"/>
     </row>
-    <row r="123" spans="1:44">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1">
@@ -11652,7 +11652,7 @@
       <c r="AQ123" s="2"/>
       <c r="AR123" s="2"/>
     </row>
-    <row r="124" spans="1:44">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1">
@@ -11744,7 +11744,7 @@
       <c r="AQ124" s="2"/>
       <c r="AR124" s="2"/>
     </row>
-    <row r="125" spans="1:44">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1">
@@ -11836,7 +11836,7 @@
       <c r="AQ125" s="2"/>
       <c r="AR125" s="2"/>
     </row>
-    <row r="126" spans="1:44">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1">
@@ -11928,7 +11928,7 @@
       <c r="AQ126" s="2"/>
       <c r="AR126" s="2"/>
     </row>
-    <row r="127" spans="1:44">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1">
@@ -12020,7 +12020,7 @@
       <c r="AQ127" s="2"/>
       <c r="AR127" s="2"/>
     </row>
-    <row r="128" spans="1:44">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1">
@@ -12112,7 +12112,7 @@
       <c r="AQ128" s="2"/>
       <c r="AR128" s="2"/>
     </row>
-    <row r="129" spans="1:44">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1">
@@ -12204,7 +12204,7 @@
       <c r="AQ129" s="2"/>
       <c r="AR129" s="2"/>
     </row>
-    <row r="130" spans="1:44">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1">
@@ -12296,7 +12296,7 @@
       <c r="AQ130" s="2"/>
       <c r="AR130" s="2"/>
     </row>
-    <row r="131" spans="1:44">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1">
@@ -12388,7 +12388,7 @@
       <c r="AQ131" s="2"/>
       <c r="AR131" s="2"/>
     </row>
-    <row r="132" spans="1:44">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1">
@@ -12480,7 +12480,7 @@
       <c r="AQ132" s="2"/>
       <c r="AR132" s="2"/>
     </row>
-    <row r="133" spans="1:44">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1">
@@ -12572,7 +12572,7 @@
       <c r="AQ133" s="2"/>
       <c r="AR133" s="2"/>
     </row>
-    <row r="134" spans="1:44">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1">
@@ -12664,7 +12664,7 @@
       <c r="AQ134" s="2"/>
       <c r="AR134" s="2"/>
     </row>
-    <row r="135" spans="1:44">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1">
@@ -12756,7 +12756,7 @@
       <c r="AQ135" s="2"/>
       <c r="AR135" s="2"/>
     </row>
-    <row r="136" spans="1:44">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1">
@@ -12848,7 +12848,7 @@
       <c r="AQ136" s="2"/>
       <c r="AR136" s="2"/>
     </row>
-    <row r="137" spans="1:44">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1">
@@ -12940,7 +12940,7 @@
       <c r="AQ137" s="2"/>
       <c r="AR137" s="2"/>
     </row>
-    <row r="138" spans="1:44">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1">
@@ -13032,7 +13032,7 @@
       <c r="AQ138" s="2"/>
       <c r="AR138" s="2"/>
     </row>
-    <row r="139" spans="1:44">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1">
@@ -13124,7 +13124,7 @@
       <c r="AQ139" s="2"/>
       <c r="AR139" s="2"/>
     </row>
-    <row r="140" spans="1:44">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1">
@@ -13216,7 +13216,7 @@
       <c r="AQ140" s="2"/>
       <c r="AR140" s="2"/>
     </row>
-    <row r="141" spans="1:44">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1">
@@ -13308,7 +13308,7 @@
       <c r="AQ141" s="2"/>
       <c r="AR141" s="2"/>
     </row>
-    <row r="142" spans="1:44">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1">
@@ -13400,7 +13400,7 @@
       <c r="AQ142" s="2"/>
       <c r="AR142" s="2"/>
     </row>
-    <row r="143" spans="1:44">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1">
@@ -13492,7 +13492,7 @@
       <c r="AQ143" s="2"/>
       <c r="AR143" s="2"/>
     </row>
-    <row r="144" spans="1:44">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1">
@@ -13584,7 +13584,7 @@
       <c r="AQ144" s="2"/>
       <c r="AR144" s="2"/>
     </row>
-    <row r="145" spans="1:44">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1">
@@ -13676,7 +13676,7 @@
       <c r="AQ145" s="2"/>
       <c r="AR145" s="2"/>
     </row>
-    <row r="146" spans="1:44">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1">
@@ -13768,7 +13768,7 @@
       <c r="AQ146" s="2"/>
       <c r="AR146" s="2"/>
     </row>
-    <row r="147" spans="1:44">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1">
@@ -13860,7 +13860,7 @@
       <c r="AQ147" s="2"/>
       <c r="AR147" s="2"/>
     </row>
-    <row r="148" spans="1:44">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1">
@@ -13952,7 +13952,7 @@
       <c r="AQ148" s="2"/>
       <c r="AR148" s="2"/>
     </row>
-    <row r="149" spans="1:44">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1">
@@ -14044,7 +14044,7 @@
       <c r="AQ149" s="2"/>
       <c r="AR149" s="2"/>
     </row>
-    <row r="150" spans="1:44">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1">
@@ -14136,7 +14136,7 @@
       <c r="AQ150" s="2"/>
       <c r="AR150" s="2"/>
     </row>
-    <row r="151" spans="1:44">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1">
@@ -14228,7 +14228,7 @@
       <c r="AQ151" s="2"/>
       <c r="AR151" s="2"/>
     </row>
-    <row r="152" spans="1:44">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1">
@@ -14320,7 +14320,7 @@
       <c r="AQ152" s="2"/>
       <c r="AR152" s="2"/>
     </row>
-    <row r="153" spans="1:44">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1">
@@ -14412,7 +14412,7 @@
       <c r="AQ153" s="2"/>
       <c r="AR153" s="2"/>
     </row>
-    <row r="154" spans="1:44">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1">
@@ -14504,7 +14504,7 @@
       <c r="AQ154" s="2"/>
       <c r="AR154" s="2"/>
     </row>
-    <row r="155" spans="1:44">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1">
@@ -14596,7 +14596,7 @@
       <c r="AQ155" s="2"/>
       <c r="AR155" s="2"/>
     </row>
-    <row r="156" spans="1:44">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1">
@@ -14688,7 +14688,7 @@
       <c r="AQ156" s="2"/>
       <c r="AR156" s="2"/>
     </row>
-    <row r="157" spans="1:44">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1">
@@ -14780,7 +14780,7 @@
       <c r="AQ157" s="2"/>
       <c r="AR157" s="2"/>
     </row>
-    <row r="158" spans="1:44">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1">
@@ -14872,7 +14872,7 @@
       <c r="AQ158" s="2"/>
       <c r="AR158" s="2"/>
     </row>
-    <row r="159" spans="1:44">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1">
@@ -14964,7 +14964,7 @@
       <c r="AQ159" s="2"/>
       <c r="AR159" s="2"/>
     </row>
-    <row r="160" spans="1:44">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1">
@@ -15056,7 +15056,7 @@
       <c r="AQ160" s="2"/>
       <c r="AR160" s="2"/>
     </row>
-    <row r="161" spans="1:44">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1">
@@ -15148,7 +15148,7 @@
       <c r="AQ161" s="2"/>
       <c r="AR161" s="2"/>
     </row>
-    <row r="162" spans="1:44">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1">
@@ -15240,7 +15240,7 @@
       <c r="AQ162" s="2"/>
       <c r="AR162" s="2"/>
     </row>
-    <row r="163" spans="1:44">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1">
@@ -15332,7 +15332,7 @@
       <c r="AQ163" s="2"/>
       <c r="AR163" s="2"/>
     </row>
-    <row r="164" spans="1:44">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1">
@@ -15424,7 +15424,7 @@
       <c r="AQ164" s="2"/>
       <c r="AR164" s="2"/>
     </row>
-    <row r="165" spans="1:44">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1">
@@ -15516,7 +15516,7 @@
       <c r="AQ165" s="2"/>
       <c r="AR165" s="2"/>
     </row>
-    <row r="166" spans="1:44" s="3" customFormat="1">
+    <row r="166" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5">
@@ -15608,7 +15608,7 @@
       <c r="AQ166" s="4"/>
       <c r="AR166" s="4"/>
     </row>
-    <row r="167" spans="1:44">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1">
@@ -15700,7 +15700,7 @@
       <c r="AQ167" s="2"/>
       <c r="AR167" s="2"/>
     </row>
-    <row r="168" spans="1:44">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1">
@@ -15792,7 +15792,7 @@
       <c r="AQ168" s="2"/>
       <c r="AR168" s="2"/>
     </row>
-    <row r="169" spans="1:44">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1">
@@ -15884,7 +15884,7 @@
       <c r="AQ169" s="2"/>
       <c r="AR169" s="2"/>
     </row>
-    <row r="170" spans="1:44">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1">
@@ -15976,7 +15976,7 @@
       <c r="AQ170" s="2"/>
       <c r="AR170" s="2"/>
     </row>
-    <row r="171" spans="1:44">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1">
@@ -16068,7 +16068,7 @@
       <c r="AQ171" s="2"/>
       <c r="AR171" s="2"/>
     </row>
-    <row r="172" spans="1:44">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1">
@@ -16160,7 +16160,7 @@
       <c r="AQ172" s="2"/>
       <c r="AR172" s="2"/>
     </row>
-    <row r="173" spans="1:44">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1">
@@ -16252,7 +16252,7 @@
       <c r="AQ173" s="2"/>
       <c r="AR173" s="2"/>
     </row>
-    <row r="174" spans="1:44">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1">
@@ -16344,7 +16344,7 @@
       <c r="AQ174" s="2"/>
       <c r="AR174" s="2"/>
     </row>
-    <row r="175" spans="1:44">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1">
@@ -16436,7 +16436,7 @@
       <c r="AQ175" s="2"/>
       <c r="AR175" s="2"/>
     </row>
-    <row r="176" spans="1:44">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1">
@@ -16528,7 +16528,7 @@
       <c r="AQ176" s="2"/>
       <c r="AR176" s="2"/>
     </row>
-    <row r="177" spans="1:44">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1">
@@ -16620,7 +16620,7 @@
       <c r="AQ177" s="2"/>
       <c r="AR177" s="2"/>
     </row>
-    <row r="178" spans="1:44">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1">
@@ -16712,7 +16712,7 @@
       <c r="AQ178" s="2"/>
       <c r="AR178" s="2"/>
     </row>
-    <row r="179" spans="1:44">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1">
@@ -16804,7 +16804,7 @@
       <c r="AQ179" s="2"/>
       <c r="AR179" s="2"/>
     </row>
-    <row r="180" spans="1:44">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1">
@@ -16896,7 +16896,7 @@
       <c r="AQ180" s="2"/>
       <c r="AR180" s="2"/>
     </row>
-    <row r="181" spans="1:44">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1">
@@ -16988,7 +16988,7 @@
       <c r="AQ181" s="2"/>
       <c r="AR181" s="2"/>
     </row>
-    <row r="182" spans="1:44">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1">
@@ -17080,7 +17080,7 @@
       <c r="AQ182" s="2"/>
       <c r="AR182" s="2"/>
     </row>
-    <row r="183" spans="1:44">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1">
@@ -17172,7 +17172,7 @@
       <c r="AQ183" s="2"/>
       <c r="AR183" s="2"/>
     </row>
-    <row r="184" spans="1:44">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1">
@@ -17264,7 +17264,7 @@
       <c r="AQ184" s="2"/>
       <c r="AR184" s="2"/>
     </row>
-    <row r="185" spans="1:44">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1">
@@ -17356,7 +17356,7 @@
       <c r="AQ185" s="2"/>
       <c r="AR185" s="2"/>
     </row>
-    <row r="186" spans="1:44">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1">
@@ -17448,7 +17448,7 @@
       <c r="AQ186" s="2"/>
       <c r="AR186" s="2"/>
     </row>
-    <row r="187" spans="1:44">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1">
@@ -17540,7 +17540,7 @@
       <c r="AQ187" s="2"/>
       <c r="AR187" s="2"/>
     </row>
-    <row r="188" spans="1:44">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1">
@@ -17632,7 +17632,7 @@
       <c r="AQ188" s="2"/>
       <c r="AR188" s="2"/>
     </row>
-    <row r="189" spans="1:44">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1">
@@ -17724,7 +17724,7 @@
       <c r="AQ189" s="2"/>
       <c r="AR189" s="2"/>
     </row>
-    <row r="190" spans="1:44">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1">
@@ -17816,7 +17816,7 @@
       <c r="AQ190" s="2"/>
       <c r="AR190" s="2"/>
     </row>
-    <row r="191" spans="1:44">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1">
@@ -17908,7 +17908,7 @@
       <c r="AQ191" s="2"/>
       <c r="AR191" s="2"/>
     </row>
-    <row r="192" spans="1:44">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1">
@@ -18000,7 +18000,7 @@
       <c r="AQ192" s="2"/>
       <c r="AR192" s="2"/>
     </row>
-    <row r="193" spans="1:44">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1">
@@ -18092,7 +18092,7 @@
       <c r="AQ193" s="2"/>
       <c r="AR193" s="2"/>
     </row>
-    <row r="194" spans="1:44">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1">
@@ -18184,7 +18184,7 @@
       <c r="AQ194" s="2"/>
       <c r="AR194" s="2"/>
     </row>
-    <row r="195" spans="1:44">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1">
@@ -18276,7 +18276,7 @@
       <c r="AQ195" s="2"/>
       <c r="AR195" s="2"/>
     </row>
-    <row r="196" spans="1:44">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1">
@@ -18368,7 +18368,7 @@
       <c r="AQ196" s="2"/>
       <c r="AR196" s="2"/>
     </row>
-    <row r="197" spans="1:44">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1">
@@ -18460,7 +18460,7 @@
       <c r="AQ197" s="2"/>
       <c r="AR197" s="2"/>
     </row>
-    <row r="198" spans="1:44">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1">
@@ -18552,7 +18552,7 @@
       <c r="AQ198" s="2"/>
       <c r="AR198" s="2"/>
     </row>
-    <row r="199" spans="1:44">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1">
@@ -18644,7 +18644,7 @@
       <c r="AQ199" s="2"/>
       <c r="AR199" s="2"/>
     </row>
-    <row r="200" spans="1:44">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1">
@@ -18736,7 +18736,7 @@
       <c r="AQ200" s="2"/>
       <c r="AR200" s="2"/>
     </row>
-    <row r="201" spans="1:44">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1">
@@ -18828,7 +18828,7 @@
       <c r="AQ201" s="2"/>
       <c r="AR201" s="2"/>
     </row>
-    <row r="202" spans="1:44">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1">
@@ -18920,7 +18920,7 @@
       <c r="AQ202" s="2"/>
       <c r="AR202" s="2"/>
     </row>
-    <row r="203" spans="1:44">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1">
@@ -19012,7 +19012,7 @@
       <c r="AQ203" s="2"/>
       <c r="AR203" s="2"/>
     </row>
-    <row r="204" spans="1:44">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1">
@@ -19104,7 +19104,7 @@
       <c r="AQ204" s="2"/>
       <c r="AR204" s="2"/>
     </row>
-    <row r="205" spans="1:44">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1">
@@ -19196,7 +19196,7 @@
       <c r="AQ205" s="2"/>
       <c r="AR205" s="2"/>
     </row>
-    <row r="206" spans="1:44">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1">
@@ -19288,7 +19288,7 @@
       <c r="AQ206" s="2"/>
       <c r="AR206" s="2"/>
     </row>
-    <row r="207" spans="1:44">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1">
@@ -19380,7 +19380,7 @@
       <c r="AQ207" s="2"/>
       <c r="AR207" s="2"/>
     </row>
-    <row r="208" spans="1:44">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1">
@@ -19472,7 +19472,7 @@
       <c r="AQ208" s="2"/>
       <c r="AR208" s="2"/>
     </row>
-    <row r="209" spans="1:44">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1">
@@ -19564,7 +19564,7 @@
       <c r="AQ209" s="2"/>
       <c r="AR209" s="2"/>
     </row>
-    <row r="210" spans="1:44">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1">
@@ -19656,7 +19656,7 @@
       <c r="AQ210" s="2"/>
       <c r="AR210" s="2"/>
     </row>
-    <row r="211" spans="1:44">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1">
@@ -19748,7 +19748,7 @@
       <c r="AQ211" s="2"/>
       <c r="AR211" s="2"/>
     </row>
-    <row r="212" spans="1:44">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1">
@@ -19840,7 +19840,7 @@
       <c r="AQ212" s="2"/>
       <c r="AR212" s="2"/>
     </row>
-    <row r="213" spans="1:44">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1">
@@ -19932,7 +19932,7 @@
       <c r="AQ213" s="2"/>
       <c r="AR213" s="2"/>
     </row>
-    <row r="214" spans="1:44">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1">
@@ -20024,7 +20024,7 @@
       <c r="AQ214" s="2"/>
       <c r="AR214" s="2"/>
     </row>
-    <row r="215" spans="1:44">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1">
@@ -20116,7 +20116,7 @@
       <c r="AQ215" s="2"/>
       <c r="AR215" s="2"/>
     </row>
-    <row r="216" spans="1:44">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1">
@@ -20208,7 +20208,7 @@
       <c r="AQ216" s="2"/>
       <c r="AR216" s="2"/>
     </row>
-    <row r="217" spans="1:44">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1">
@@ -20300,7 +20300,7 @@
       <c r="AQ217" s="2"/>
       <c r="AR217" s="2"/>
     </row>
-    <row r="218" spans="1:44">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1">
@@ -20392,7 +20392,7 @@
       <c r="AQ218" s="2"/>
       <c r="AR218" s="2"/>
     </row>
-    <row r="219" spans="1:44">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1">
@@ -20484,7 +20484,7 @@
       <c r="AQ219" s="2"/>
       <c r="AR219" s="2"/>
     </row>
-    <row r="220" spans="1:44">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1">
@@ -20576,7 +20576,7 @@
       <c r="AQ220" s="2"/>
       <c r="AR220" s="2"/>
     </row>
-    <row r="221" spans="1:44">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1">
@@ -20668,7 +20668,7 @@
       <c r="AQ221" s="2"/>
       <c r="AR221" s="2"/>
     </row>
-    <row r="222" spans="1:44">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1">
@@ -20760,7 +20760,7 @@
       <c r="AQ222" s="2"/>
       <c r="AR222" s="2"/>
     </row>
-    <row r="223" spans="1:44">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1">
@@ -20852,7 +20852,7 @@
       <c r="AQ223" s="2"/>
       <c r="AR223" s="2"/>
     </row>
-    <row r="224" spans="1:44">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1">
@@ -20944,7 +20944,7 @@
       <c r="AQ224" s="2"/>
       <c r="AR224" s="2"/>
     </row>
-    <row r="225" spans="1:44">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1">
@@ -21036,7 +21036,7 @@
       <c r="AQ225" s="2"/>
       <c r="AR225" s="2"/>
     </row>
-    <row r="226" spans="1:44">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1">
@@ -21128,7 +21128,7 @@
       <c r="AQ226" s="2"/>
       <c r="AR226" s="2"/>
     </row>
-    <row r="227" spans="1:44">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1">
@@ -21220,7 +21220,7 @@
       <c r="AQ227" s="2"/>
       <c r="AR227" s="2"/>
     </row>
-    <row r="228" spans="1:44">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1">
@@ -21312,7 +21312,7 @@
       <c r="AQ228" s="2"/>
       <c r="AR228" s="2"/>
     </row>
-    <row r="229" spans="1:44">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1">
@@ -21404,7 +21404,7 @@
       <c r="AQ229" s="2"/>
       <c r="AR229" s="2"/>
     </row>
-    <row r="230" spans="1:44">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1">
@@ -21496,7 +21496,7 @@
       <c r="AQ230" s="2"/>
       <c r="AR230" s="2"/>
     </row>
-    <row r="231" spans="1:44">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1">
@@ -21588,7 +21588,7 @@
       <c r="AQ231" s="2"/>
       <c r="AR231" s="2"/>
     </row>
-    <row r="232" spans="1:44">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1">
@@ -21680,7 +21680,7 @@
       <c r="AQ232" s="2"/>
       <c r="AR232" s="2"/>
     </row>
-    <row r="233" spans="1:44">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -21726,7 +21726,7 @@
       <c r="AQ233" s="2"/>
       <c r="AR233" s="2"/>
     </row>
-    <row r="234" spans="1:44">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -21772,7 +21772,7 @@
       <c r="AQ234" s="2"/>
       <c r="AR234" s="2"/>
     </row>
-    <row r="235" spans="1:44">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -21818,7 +21818,7 @@
       <c r="AQ235" s="2"/>
       <c r="AR235" s="2"/>
     </row>
-    <row r="236" spans="1:44">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -21864,7 +21864,7 @@
       <c r="AQ236" s="2"/>
       <c r="AR236" s="2"/>
     </row>
-    <row r="237" spans="1:44">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -21910,7 +21910,7 @@
       <c r="AQ237" s="2"/>
       <c r="AR237" s="2"/>
     </row>
-    <row r="238" spans="1:44">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -21956,7 +21956,7 @@
       <c r="AQ238" s="2"/>
       <c r="AR238" s="2"/>
     </row>
-    <row r="239" spans="1:44">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -22002,7 +22002,7 @@
       <c r="AQ239" s="2"/>
       <c r="AR239" s="2"/>
     </row>
-    <row r="240" spans="1:44">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -22048,7 +22048,7 @@
       <c r="AQ240" s="2"/>
       <c r="AR240" s="2"/>
     </row>
-    <row r="241" spans="1:44">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -22094,7 +22094,7 @@
       <c r="AQ241" s="2"/>
       <c r="AR241" s="2"/>
     </row>
-    <row r="242" spans="1:44">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -22140,7 +22140,7 @@
       <c r="AQ242" s="2"/>
       <c r="AR242" s="2"/>
     </row>
-    <row r="243" spans="1:44">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -22186,7 +22186,7 @@
       <c r="AQ243" s="2"/>
       <c r="AR243" s="2"/>
     </row>
-    <row r="244" spans="1:44">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -22232,7 +22232,7 @@
       <c r="AQ244" s="2"/>
       <c r="AR244" s="2"/>
     </row>
-    <row r="245" spans="1:44">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -22278,7 +22278,7 @@
       <c r="AQ245" s="2"/>
       <c r="AR245" s="2"/>
     </row>
-    <row r="246" spans="1:44">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -22324,7 +22324,7 @@
       <c r="AQ246" s="2"/>
       <c r="AR246" s="2"/>
     </row>
-    <row r="247" spans="1:44">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -22370,7 +22370,7 @@
       <c r="AQ247" s="2"/>
       <c r="AR247" s="2"/>
     </row>
-    <row r="248" spans="1:44">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -22416,7 +22416,7 @@
       <c r="AQ248" s="2"/>
       <c r="AR248" s="2"/>
     </row>
-    <row r="249" spans="1:44">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -22462,7 +22462,7 @@
       <c r="AQ249" s="2"/>
       <c r="AR249" s="2"/>
     </row>
-    <row r="250" spans="1:44">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -22508,7 +22508,7 @@
       <c r="AQ250" s="2"/>
       <c r="AR250" s="2"/>
     </row>
-    <row r="251" spans="1:44">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -22554,7 +22554,7 @@
       <c r="AQ251" s="2"/>
       <c r="AR251" s="2"/>
     </row>
-    <row r="252" spans="1:44">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -22600,7 +22600,7 @@
       <c r="AQ252" s="2"/>
       <c r="AR252" s="2"/>
     </row>
-    <row r="253" spans="1:44">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -22646,7 +22646,7 @@
       <c r="AQ253" s="2"/>
       <c r="AR253" s="2"/>
     </row>
-    <row r="254" spans="1:44">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -22692,7 +22692,7 @@
       <c r="AQ254" s="2"/>
       <c r="AR254" s="2"/>
     </row>
-    <row r="255" spans="1:44">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -22738,7 +22738,7 @@
       <c r="AQ255" s="2"/>
       <c r="AR255" s="2"/>
     </row>
-    <row r="256" spans="1:44">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -22784,7 +22784,7 @@
       <c r="AQ256" s="2"/>
       <c r="AR256" s="2"/>
     </row>
-    <row r="257" spans="1:44">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -22830,7 +22830,7 @@
       <c r="AQ257" s="2"/>
       <c r="AR257" s="2"/>
     </row>
-    <row r="258" spans="1:44">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -22876,7 +22876,7 @@
       <c r="AQ258" s="2"/>
       <c r="AR258" s="2"/>
     </row>
-    <row r="259" spans="1:44">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -22922,7 +22922,7 @@
       <c r="AQ259" s="2"/>
       <c r="AR259" s="2"/>
     </row>
-    <row r="260" spans="1:44">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -22968,7 +22968,7 @@
       <c r="AQ260" s="2"/>
       <c r="AR260" s="2"/>
     </row>
-    <row r="261" spans="1:44">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -23014,7 +23014,7 @@
       <c r="AQ261" s="2"/>
       <c r="AR261" s="2"/>
     </row>
-    <row r="262" spans="1:44">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
@@ -23060,7 +23060,7 @@
       <c r="AQ262" s="2"/>
       <c r="AR262" s="2"/>
     </row>
-    <row r="263" spans="1:44">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
@@ -23106,7 +23106,7 @@
       <c r="AQ263" s="2"/>
       <c r="AR263" s="2"/>
     </row>
-    <row r="264" spans="1:44">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
@@ -23152,7 +23152,7 @@
       <c r="AQ264" s="2"/>
       <c r="AR264" s="2"/>
     </row>
-    <row r="265" spans="1:44">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
@@ -23198,7 +23198,7 @@
       <c r="AQ265" s="2"/>
       <c r="AR265" s="2"/>
     </row>
-    <row r="266" spans="1:44">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
@@ -23244,7 +23244,7 @@
       <c r="AQ266" s="2"/>
       <c r="AR266" s="2"/>
     </row>
-    <row r="267" spans="1:44">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="1"/>
@@ -23290,7 +23290,7 @@
       <c r="AQ267" s="2"/>
       <c r="AR267" s="2"/>
     </row>
-    <row r="268" spans="1:44">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="1"/>
@@ -23336,7 +23336,7 @@
       <c r="AQ268" s="2"/>
       <c r="AR268" s="2"/>
     </row>
-    <row r="269" spans="1:44">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
@@ -23382,7 +23382,7 @@
       <c r="AQ269" s="2"/>
       <c r="AR269" s="2"/>
     </row>
-    <row r="270" spans="1:44">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
@@ -23428,7 +23428,7 @@
       <c r="AQ270" s="2"/>
       <c r="AR270" s="2"/>
     </row>
-    <row r="271" spans="1:44">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="1"/>
@@ -23474,7 +23474,7 @@
       <c r="AQ271" s="2"/>
       <c r="AR271" s="2"/>
     </row>
-    <row r="272" spans="1:44">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="1"/>
@@ -23520,7 +23520,7 @@
       <c r="AQ272" s="2"/>
       <c r="AR272" s="2"/>
     </row>
-    <row r="273" spans="1:44">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="1"/>
@@ -23566,7 +23566,7 @@
       <c r="AQ273" s="2"/>
       <c r="AR273" s="2"/>
     </row>
-    <row r="274" spans="1:44">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="1"/>
@@ -23612,7 +23612,7 @@
       <c r="AQ274" s="2"/>
       <c r="AR274" s="2"/>
     </row>
-    <row r="275" spans="1:44">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="1"/>
@@ -23658,7 +23658,7 @@
       <c r="AQ275" s="2"/>
       <c r="AR275" s="2"/>
     </row>
-    <row r="276" spans="1:44">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="1"/>
@@ -23704,7 +23704,7 @@
       <c r="AQ276" s="2"/>
       <c r="AR276" s="2"/>
     </row>
-    <row r="277" spans="1:44">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="1"/>
@@ -23750,7 +23750,7 @@
       <c r="AQ277" s="2"/>
       <c r="AR277" s="2"/>
     </row>
-    <row r="278" spans="1:44">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="1"/>
@@ -23796,7 +23796,7 @@
       <c r="AQ278" s="2"/>
       <c r="AR278" s="2"/>
     </row>
-    <row r="279" spans="1:44">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="1"/>
@@ -23842,7 +23842,7 @@
       <c r="AQ279" s="2"/>
       <c r="AR279" s="2"/>
     </row>
-    <row r="280" spans="1:44">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="1"/>
@@ -23888,7 +23888,7 @@
       <c r="AQ280" s="2"/>
       <c r="AR280" s="2"/>
     </row>
-    <row r="281" spans="1:44">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="1"/>
@@ -23934,7 +23934,7 @@
       <c r="AQ281" s="2"/>
       <c r="AR281" s="2"/>
     </row>
-    <row r="282" spans="1:44">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="1"/>
@@ -23980,7 +23980,7 @@
       <c r="AQ282" s="2"/>
       <c r="AR282" s="2"/>
     </row>
-    <row r="283" spans="1:44">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="1"/>
@@ -24026,7 +24026,7 @@
       <c r="AQ283" s="2"/>
       <c r="AR283" s="2"/>
     </row>
-    <row r="284" spans="1:44">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="1"/>
@@ -24072,7 +24072,7 @@
       <c r="AQ284" s="2"/>
       <c r="AR284" s="2"/>
     </row>
-    <row r="285" spans="1:44">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="1"/>
@@ -24118,7 +24118,7 @@
       <c r="AQ285" s="2"/>
       <c r="AR285" s="2"/>
     </row>
-    <row r="286" spans="1:44">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="1"/>
@@ -24164,7 +24164,7 @@
       <c r="AQ286" s="2"/>
       <c r="AR286" s="2"/>
     </row>
-    <row r="287" spans="1:44">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="1"/>
@@ -24210,7 +24210,7 @@
       <c r="AQ287" s="2"/>
       <c r="AR287" s="2"/>
     </row>
-    <row r="288" spans="1:44">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="1"/>
@@ -24256,7 +24256,7 @@
       <c r="AQ288" s="2"/>
       <c r="AR288" s="2"/>
     </row>
-    <row r="289" spans="1:44">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="1"/>
@@ -24302,7 +24302,7 @@
       <c r="AQ289" s="2"/>
       <c r="AR289" s="2"/>
     </row>
-    <row r="290" spans="1:44">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="1"/>
@@ -24348,7 +24348,7 @@
       <c r="AQ290" s="2"/>
       <c r="AR290" s="2"/>
     </row>
-    <row r="291" spans="1:44">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="1"/>
@@ -24394,7 +24394,7 @@
       <c r="AQ291" s="2"/>
       <c r="AR291" s="2"/>
     </row>
-    <row r="292" spans="1:44">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="1"/>
@@ -24440,7 +24440,7 @@
       <c r="AQ292" s="2"/>
       <c r="AR292" s="2"/>
     </row>
-    <row r="293" spans="1:44">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="1"/>
@@ -24486,7 +24486,7 @@
       <c r="AQ293" s="2"/>
       <c r="AR293" s="2"/>
     </row>
-    <row r="294" spans="1:44">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="1"/>
@@ -24532,7 +24532,7 @@
       <c r="AQ294" s="2"/>
       <c r="AR294" s="2"/>
     </row>
-    <row r="295" spans="1:44">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="1"/>
@@ -24578,7 +24578,7 @@
       <c r="AQ295" s="2"/>
       <c r="AR295" s="2"/>
     </row>
-    <row r="296" spans="1:44">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="1"/>
@@ -24624,7 +24624,7 @@
       <c r="AQ296" s="2"/>
       <c r="AR296" s="2"/>
     </row>
-    <row r="297" spans="1:44">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="1"/>
@@ -24670,7 +24670,7 @@
       <c r="AQ297" s="2"/>
       <c r="AR297" s="2"/>
     </row>
-    <row r="298" spans="1:44">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="1"/>
@@ -24716,7 +24716,7 @@
       <c r="AQ298" s="2"/>
       <c r="AR298" s="2"/>
     </row>
-    <row r="299" spans="1:44">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="1"/>
@@ -24762,7 +24762,7 @@
       <c r="AQ299" s="2"/>
       <c r="AR299" s="2"/>
     </row>
-    <row r="300" spans="1:44">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="1"/>
@@ -24808,7 +24808,7 @@
       <c r="AQ300" s="2"/>
       <c r="AR300" s="2"/>
     </row>
-    <row r="301" spans="1:44">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="1"/>
@@ -24854,7 +24854,7 @@
       <c r="AQ301" s="2"/>
       <c r="AR301" s="2"/>
     </row>
-    <row r="302" spans="1:44">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="1"/>
@@ -24900,7 +24900,7 @@
       <c r="AQ302" s="2"/>
       <c r="AR302" s="2"/>
     </row>
-    <row r="303" spans="1:44">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="1"/>
@@ -24946,7 +24946,7 @@
       <c r="AQ303" s="2"/>
       <c r="AR303" s="2"/>
     </row>
-    <row r="304" spans="1:44">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="1"/>
@@ -24992,7 +24992,7 @@
       <c r="AQ304" s="2"/>
       <c r="AR304" s="2"/>
     </row>
-    <row r="305" spans="1:44">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="1"/>
@@ -25038,7 +25038,7 @@
       <c r="AQ305" s="2"/>
       <c r="AR305" s="2"/>
     </row>
-    <row r="306" spans="1:44">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="1"/>
@@ -25084,7 +25084,7 @@
       <c r="AQ306" s="2"/>
       <c r="AR306" s="2"/>
     </row>
-    <row r="307" spans="1:44">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="1"/>
@@ -25130,7 +25130,7 @@
       <c r="AQ307" s="2"/>
       <c r="AR307" s="2"/>
     </row>
-    <row r="308" spans="1:44">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="1"/>
@@ -25176,7 +25176,7 @@
       <c r="AQ308" s="2"/>
       <c r="AR308" s="2"/>
     </row>
-    <row r="309" spans="1:44">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="1"/>
@@ -25222,7 +25222,7 @@
       <c r="AQ309" s="2"/>
       <c r="AR309" s="2"/>
     </row>
-    <row r="310" spans="1:44">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="1"/>
@@ -25268,7 +25268,7 @@
       <c r="AQ310" s="2"/>
       <c r="AR310" s="2"/>
     </row>
-    <row r="311" spans="1:44">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="1"/>
@@ -25314,7 +25314,7 @@
       <c r="AQ311" s="2"/>
       <c r="AR311" s="2"/>
     </row>
-    <row r="312" spans="1:44">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="1"/>
@@ -25360,7 +25360,7 @@
       <c r="AQ312" s="2"/>
       <c r="AR312" s="2"/>
     </row>
-    <row r="313" spans="1:44">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="1"/>
@@ -25406,7 +25406,7 @@
       <c r="AQ313" s="2"/>
       <c r="AR313" s="2"/>
     </row>
-    <row r="314" spans="1:44">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="1"/>
@@ -25452,7 +25452,7 @@
       <c r="AQ314" s="2"/>
       <c r="AR314" s="2"/>
     </row>
-    <row r="315" spans="1:44">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="1"/>
@@ -25498,7 +25498,7 @@
       <c r="AQ315" s="2"/>
       <c r="AR315" s="2"/>
     </row>
-    <row r="316" spans="1:44">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="1"/>
@@ -25544,7 +25544,7 @@
       <c r="AQ316" s="2"/>
       <c r="AR316" s="2"/>
     </row>
-    <row r="317" spans="1:44">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="1"/>
@@ -25590,7 +25590,7 @@
       <c r="AQ317" s="2"/>
       <c r="AR317" s="2"/>
     </row>
-    <row r="318" spans="1:44">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="1"/>
@@ -25636,7 +25636,7 @@
       <c r="AQ318" s="2"/>
       <c r="AR318" s="2"/>
     </row>
-    <row r="319" spans="1:44">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="1"/>
@@ -25682,7 +25682,7 @@
       <c r="AQ319" s="2"/>
       <c r="AR319" s="2"/>
     </row>
-    <row r="320" spans="1:44">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="1"/>
@@ -25728,7 +25728,7 @@
       <c r="AQ320" s="2"/>
       <c r="AR320" s="2"/>
     </row>
-    <row r="321" spans="1:44">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="1"/>
@@ -25774,7 +25774,7 @@
       <c r="AQ321" s="2"/>
       <c r="AR321" s="2"/>
     </row>
-    <row r="322" spans="1:44">
+    <row r="322" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="1"/>
@@ -25820,7 +25820,7 @@
       <c r="AQ322" s="2"/>
       <c r="AR322" s="2"/>
     </row>
-    <row r="323" spans="1:44">
+    <row r="323" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="1"/>
@@ -25866,7 +25866,7 @@
       <c r="AQ323" s="2"/>
       <c r="AR323" s="2"/>
     </row>
-    <row r="324" spans="1:44">
+    <row r="324" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="1"/>
@@ -25912,7 +25912,7 @@
       <c r="AQ324" s="2"/>
       <c r="AR324" s="2"/>
     </row>
-    <row r="325" spans="1:44">
+    <row r="325" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="1"/>
@@ -25958,7 +25958,7 @@
       <c r="AQ325" s="2"/>
       <c r="AR325" s="2"/>
     </row>
-    <row r="326" spans="1:44">
+    <row r="326" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="1"/>
@@ -26004,7 +26004,7 @@
       <c r="AQ326" s="2"/>
       <c r="AR326" s="2"/>
     </row>
-    <row r="327" spans="1:44">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="1"/>
@@ -26050,7 +26050,7 @@
       <c r="AQ327" s="2"/>
       <c r="AR327" s="2"/>
     </row>
-    <row r="328" spans="1:44">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="1"/>
@@ -26096,7 +26096,7 @@
       <c r="AQ328" s="2"/>
       <c r="AR328" s="2"/>
     </row>
-    <row r="329" spans="1:44">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="1"/>
@@ -26142,7 +26142,7 @@
       <c r="AQ329" s="2"/>
       <c r="AR329" s="2"/>
     </row>
-    <row r="330" spans="1:44">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="1"/>
@@ -26188,7 +26188,7 @@
       <c r="AQ330" s="2"/>
       <c r="AR330" s="2"/>
     </row>
-    <row r="331" spans="1:44">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="1"/>
@@ -26234,7 +26234,7 @@
       <c r="AQ331" s="2"/>
       <c r="AR331" s="2"/>
     </row>
-    <row r="332" spans="1:44">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="1"/>
@@ -26280,7 +26280,7 @@
       <c r="AQ332" s="2"/>
       <c r="AR332" s="2"/>
     </row>
-    <row r="333" spans="1:44">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="1"/>
@@ -26326,7 +26326,7 @@
       <c r="AQ333" s="2"/>
       <c r="AR333" s="2"/>
     </row>
-    <row r="334" spans="1:44">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="1"/>
@@ -26372,7 +26372,7 @@
       <c r="AQ334" s="2"/>
       <c r="AR334" s="2"/>
     </row>
-    <row r="335" spans="1:44">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="1"/>
@@ -26418,7 +26418,7 @@
       <c r="AQ335" s="2"/>
       <c r="AR335" s="2"/>
     </row>
-    <row r="336" spans="1:44">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="1"/>
@@ -26464,7 +26464,7 @@
       <c r="AQ336" s="2"/>
       <c r="AR336" s="2"/>
     </row>
-    <row r="337" spans="1:44">
+    <row r="337" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="1"/>
@@ -26510,7 +26510,7 @@
       <c r="AQ337" s="2"/>
       <c r="AR337" s="2"/>
     </row>
-    <row r="338" spans="1:44">
+    <row r="338" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="1"/>
@@ -26556,7 +26556,7 @@
       <c r="AQ338" s="2"/>
       <c r="AR338" s="2"/>
     </row>
-    <row r="339" spans="1:44">
+    <row r="339" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="1"/>
@@ -26602,7 +26602,7 @@
       <c r="AQ339" s="2"/>
       <c r="AR339" s="2"/>
     </row>
-    <row r="340" spans="1:44">
+    <row r="340" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="1"/>
@@ -26648,7 +26648,7 @@
       <c r="AQ340" s="2"/>
       <c r="AR340" s="2"/>
     </row>
-    <row r="341" spans="1:44">
+    <row r="341" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="1"/>
@@ -26694,7 +26694,7 @@
       <c r="AQ341" s="2"/>
       <c r="AR341" s="2"/>
     </row>
-    <row r="342" spans="1:44">
+    <row r="342" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="1"/>
@@ -26740,7 +26740,7 @@
       <c r="AQ342" s="2"/>
       <c r="AR342" s="2"/>
     </row>
-    <row r="343" spans="1:44">
+    <row r="343" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="1"/>
@@ -26786,7 +26786,7 @@
       <c r="AQ343" s="2"/>
       <c r="AR343" s="2"/>
     </row>
-    <row r="344" spans="1:44">
+    <row r="344" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="1"/>
@@ -26832,7 +26832,7 @@
       <c r="AQ344" s="2"/>
       <c r="AR344" s="2"/>
     </row>
-    <row r="345" spans="1:44">
+    <row r="345" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="1"/>
@@ -26878,7 +26878,7 @@
       <c r="AQ345" s="2"/>
       <c r="AR345" s="2"/>
     </row>
-    <row r="346" spans="1:44">
+    <row r="346" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="1"/>
@@ -26924,7 +26924,7 @@
       <c r="AQ346" s="2"/>
       <c r="AR346" s="2"/>
     </row>
-    <row r="347" spans="1:44">
+    <row r="347" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="1"/>
@@ -26970,7 +26970,7 @@
       <c r="AQ347" s="2"/>
       <c r="AR347" s="2"/>
     </row>
-    <row r="348" spans="1:44">
+    <row r="348" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="1"/>
@@ -27016,7 +27016,7 @@
       <c r="AQ348" s="2"/>
       <c r="AR348" s="2"/>
     </row>
-    <row r="349" spans="1:44">
+    <row r="349" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="1"/>
@@ -27062,7 +27062,7 @@
       <c r="AQ349" s="2"/>
       <c r="AR349" s="2"/>
     </row>
-    <row r="350" spans="1:44">
+    <row r="350" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="1"/>
@@ -27108,7 +27108,7 @@
       <c r="AQ350" s="2"/>
       <c r="AR350" s="2"/>
     </row>
-    <row r="351" spans="1:44">
+    <row r="351" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="1"/>
@@ -27154,7 +27154,7 @@
       <c r="AQ351" s="2"/>
       <c r="AR351" s="2"/>
     </row>
-    <row r="352" spans="1:44">
+    <row r="352" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="1"/>
@@ -27200,7 +27200,7 @@
       <c r="AQ352" s="2"/>
       <c r="AR352" s="2"/>
     </row>
-    <row r="353" spans="1:44">
+    <row r="353" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="1"/>
@@ -27246,7 +27246,7 @@
       <c r="AQ353" s="2"/>
       <c r="AR353" s="2"/>
     </row>
-    <row r="354" spans="1:44">
+    <row r="354" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="1"/>
@@ -27292,7 +27292,7 @@
       <c r="AQ354" s="2"/>
       <c r="AR354" s="2"/>
     </row>
-    <row r="355" spans="1:44">
+    <row r="355" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="1"/>
@@ -27338,7 +27338,7 @@
       <c r="AQ355" s="2"/>
       <c r="AR355" s="2"/>
     </row>
-    <row r="356" spans="1:44">
+    <row r="356" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="1"/>
@@ -27384,7 +27384,7 @@
       <c r="AQ356" s="2"/>
       <c r="AR356" s="2"/>
     </row>
-    <row r="357" spans="1:44">
+    <row r="357" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="1"/>
@@ -27430,7 +27430,7 @@
       <c r="AQ357" s="2"/>
       <c r="AR357" s="2"/>
     </row>
-    <row r="358" spans="1:44">
+    <row r="358" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="1"/>
@@ -27476,7 +27476,7 @@
       <c r="AQ358" s="2"/>
       <c r="AR358" s="2"/>
     </row>
-    <row r="359" spans="1:44">
+    <row r="359" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="1"/>
@@ -27522,7 +27522,7 @@
       <c r="AQ359" s="2"/>
       <c r="AR359" s="2"/>
     </row>
-    <row r="360" spans="1:44">
+    <row r="360" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="1"/>
@@ -27568,7 +27568,7 @@
       <c r="AQ360" s="2"/>
       <c r="AR360" s="2"/>
     </row>
-    <row r="361" spans="1:44">
+    <row r="361" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="1"/>
@@ -27614,7 +27614,7 @@
       <c r="AQ361" s="2"/>
       <c r="AR361" s="2"/>
     </row>
-    <row r="362" spans="1:44">
+    <row r="362" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="1"/>
@@ -27660,7 +27660,7 @@
       <c r="AQ362" s="2"/>
       <c r="AR362" s="2"/>
     </row>
-    <row r="363" spans="1:44">
+    <row r="363" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="1"/>
@@ -27706,7 +27706,7 @@
       <c r="AQ363" s="2"/>
       <c r="AR363" s="2"/>
     </row>
-    <row r="364" spans="1:44">
+    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="1"/>
@@ -27752,7 +27752,7 @@
       <c r="AQ364" s="2"/>
       <c r="AR364" s="2"/>
     </row>
-    <row r="365" spans="1:44">
+    <row r="365" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="1"/>
@@ -27798,7 +27798,7 @@
       <c r="AQ365" s="2"/>
       <c r="AR365" s="2"/>
     </row>
-    <row r="366" spans="1:44">
+    <row r="366" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="1"/>
@@ -27844,7 +27844,7 @@
       <c r="AQ366" s="2"/>
       <c r="AR366" s="2"/>
     </row>
-    <row r="367" spans="1:44">
+    <row r="367" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="1"/>
@@ -27890,7 +27890,7 @@
       <c r="AQ367" s="2"/>
       <c r="AR367" s="2"/>
     </row>
-    <row r="368" spans="1:44">
+    <row r="368" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="1"/>
@@ -27936,7 +27936,7 @@
       <c r="AQ368" s="2"/>
       <c r="AR368" s="2"/>
     </row>
-    <row r="369" spans="1:44">
+    <row r="369" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="1"/>
@@ -27982,7 +27982,7 @@
       <c r="AQ369" s="2"/>
       <c r="AR369" s="2"/>
     </row>
-    <row r="370" spans="1:44">
+    <row r="370" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="1"/>
@@ -28028,7 +28028,7 @@
       <c r="AQ370" s="2"/>
       <c r="AR370" s="2"/>
     </row>
-    <row r="371" spans="1:44">
+    <row r="371" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="1"/>
@@ -28074,7 +28074,7 @@
       <c r="AQ371" s="2"/>
       <c r="AR371" s="2"/>
     </row>
-    <row r="372" spans="1:44">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="1"/>
@@ -28120,7 +28120,7 @@
       <c r="AQ372" s="2"/>
       <c r="AR372" s="2"/>
     </row>
-    <row r="373" spans="1:44">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="1"/>
@@ -28166,7 +28166,7 @@
       <c r="AQ373" s="2"/>
       <c r="AR373" s="2"/>
     </row>
-    <row r="374" spans="1:44">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="1"/>
@@ -28212,7 +28212,7 @@
       <c r="AQ374" s="2"/>
       <c r="AR374" s="2"/>
     </row>
-    <row r="375" spans="1:44">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="1"/>
@@ -28258,7 +28258,7 @@
       <c r="AQ375" s="2"/>
       <c r="AR375" s="2"/>
     </row>
-    <row r="376" spans="1:44">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="1"/>
@@ -28304,7 +28304,7 @@
       <c r="AQ376" s="2"/>
       <c r="AR376" s="2"/>
     </row>
-    <row r="377" spans="1:44">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="1"/>
@@ -28350,7 +28350,7 @@
       <c r="AQ377" s="2"/>
       <c r="AR377" s="2"/>
     </row>
-    <row r="378" spans="1:44">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="1"/>
@@ -28396,7 +28396,7 @@
       <c r="AQ378" s="2"/>
       <c r="AR378" s="2"/>
     </row>
-    <row r="379" spans="1:44">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="1"/>
@@ -28442,7 +28442,7 @@
       <c r="AQ379" s="2"/>
       <c r="AR379" s="2"/>
     </row>
-    <row r="380" spans="1:44">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="1"/>
@@ -28488,7 +28488,7 @@
       <c r="AQ380" s="2"/>
       <c r="AR380" s="2"/>
     </row>
-    <row r="381" spans="1:44">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="1"/>
@@ -28534,7 +28534,7 @@
       <c r="AQ381" s="2"/>
       <c r="AR381" s="2"/>
     </row>
-    <row r="382" spans="1:44">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="1"/>
@@ -28580,7 +28580,7 @@
       <c r="AQ382" s="2"/>
       <c r="AR382" s="2"/>
     </row>
-    <row r="383" spans="1:44">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="1"/>
@@ -28626,7 +28626,7 @@
       <c r="AQ383" s="2"/>
       <c r="AR383" s="2"/>
     </row>
-    <row r="384" spans="1:44">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="1"/>
@@ -28672,7 +28672,7 @@
       <c r="AQ384" s="2"/>
       <c r="AR384" s="2"/>
     </row>
-    <row r="385" spans="1:44">
+    <row r="385" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="1"/>
@@ -28718,7 +28718,7 @@
       <c r="AQ385" s="2"/>
       <c r="AR385" s="2"/>
     </row>
-    <row r="386" spans="1:44">
+    <row r="386" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="1"/>
@@ -28764,7 +28764,7 @@
       <c r="AQ386" s="2"/>
       <c r="AR386" s="2"/>
     </row>
-    <row r="387" spans="1:44">
+    <row r="387" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="1"/>
@@ -28810,7 +28810,7 @@
       <c r="AQ387" s="2"/>
       <c r="AR387" s="2"/>
     </row>
-    <row r="388" spans="1:44">
+    <row r="388" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="1"/>
@@ -28856,7 +28856,7 @@
       <c r="AQ388" s="2"/>
       <c r="AR388" s="2"/>
     </row>
-    <row r="389" spans="1:44">
+    <row r="389" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="1"/>
@@ -28902,7 +28902,7 @@
       <c r="AQ389" s="2"/>
       <c r="AR389" s="2"/>
     </row>
-    <row r="390" spans="1:44">
+    <row r="390" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="1"/>
@@ -28948,7 +28948,7 @@
       <c r="AQ390" s="2"/>
       <c r="AR390" s="2"/>
     </row>
-    <row r="391" spans="1:44">
+    <row r="391" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="1"/>
@@ -28994,7 +28994,7 @@
       <c r="AQ391" s="2"/>
       <c r="AR391" s="2"/>
     </row>
-    <row r="392" spans="1:44">
+    <row r="392" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="1"/>
@@ -29040,7 +29040,7 @@
       <c r="AQ392" s="2"/>
       <c r="AR392" s="2"/>
     </row>
-    <row r="393" spans="1:44">
+    <row r="393" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="1"/>
@@ -29086,1421 +29086,1421 @@
       <c r="AQ393" s="2"/>
       <c r="AR393" s="2"/>
     </row>
-    <row r="394" spans="1:44">
+    <row r="394" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:44">
+    <row r="395" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:44">
+    <row r="396" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:44">
+    <row r="397" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:44">
+    <row r="398" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:44">
+    <row r="399" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:44">
+    <row r="400" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -30517,10 +30517,10 @@
   <dimension ref="A1:AP593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -30561,7 +30561,7 @@
     <col min="41" max="42" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -30632,7 +30632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>38929</v>
       </c>
@@ -30722,7 +30722,7 @@
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>38960</v>
       </c>
@@ -30812,7 +30812,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38989</v>
       </c>
@@ -30902,7 +30902,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39021</v>
       </c>
@@ -30992,7 +30992,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39051</v>
       </c>
@@ -31082,7 +31082,7 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39080</v>
       </c>
@@ -31172,7 +31172,7 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39113</v>
       </c>
@@ -31262,7 +31262,7 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39141</v>
       </c>
@@ -31352,7 +31352,7 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39171</v>
       </c>
@@ -31442,7 +31442,7 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39202</v>
       </c>
@@ -31532,7 +31532,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39233</v>
       </c>
@@ -31622,7 +31622,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39262</v>
       </c>
@@ -31712,7 +31712,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39294</v>
       </c>
@@ -31802,7 +31802,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39325</v>
       </c>
@@ -31892,7 +31892,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39353</v>
       </c>
@@ -31982,7 +31982,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39386</v>
       </c>
@@ -32072,7 +32072,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39416</v>
       </c>
@@ -32162,7 +32162,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39447</v>
       </c>
@@ -32252,7 +32252,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39478</v>
       </c>
@@ -32342,7 +32342,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39507</v>
       </c>
@@ -32432,7 +32432,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39538</v>
       </c>
@@ -32522,7 +32522,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39568</v>
       </c>
@@ -32612,7 +32612,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39598</v>
       </c>
@@ -32702,7 +32702,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39629</v>
       </c>
@@ -32792,7 +32792,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39660</v>
       </c>
@@ -32882,7 +32882,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>39689</v>
       </c>
@@ -32972,7 +32972,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>39721</v>
       </c>
@@ -33062,7 +33062,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39752</v>
       </c>
@@ -33152,7 +33152,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39780</v>
       </c>
@@ -33242,7 +33242,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39813</v>
       </c>
@@ -33332,7 +33332,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39843</v>
       </c>
@@ -33422,7 +33422,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39871</v>
       </c>
@@ -33512,7 +33512,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>39903</v>
       </c>
@@ -33602,7 +33602,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39933</v>
       </c>
@@ -33692,7 +33692,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39962</v>
       </c>
@@ -33782,7 +33782,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39994</v>
       </c>
@@ -33872,7 +33872,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40025</v>
       </c>
@@ -33962,7 +33962,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40056</v>
       </c>
@@ -34052,7 +34052,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40086</v>
       </c>
@@ -34142,7 +34142,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40116</v>
       </c>
@@ -34232,7 +34232,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40147</v>
       </c>
@@ -34322,7 +34322,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40178</v>
       </c>
@@ -34412,7 +34412,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40207</v>
       </c>
@@ -34502,7 +34502,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40235</v>
       </c>
@@ -34592,7 +34592,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40268</v>
       </c>
@@ -34682,7 +34682,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40298</v>
       </c>
@@ -34772,7 +34772,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40329</v>
       </c>
@@ -34862,7 +34862,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40359</v>
       </c>
@@ -34952,7 +34952,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40389</v>
       </c>
@@ -35042,7 +35042,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40421</v>
       </c>
@@ -35132,7 +35132,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40451</v>
       </c>
@@ -35222,7 +35222,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40480</v>
       </c>
@@ -35312,7 +35312,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40512</v>
       </c>
@@ -35402,7 +35402,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40543</v>
       </c>
@@ -35492,7 +35492,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40574</v>
       </c>
@@ -35582,7 +35582,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40602</v>
       </c>
@@ -35672,7 +35672,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40633</v>
       </c>
@@ -35762,7 +35762,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40662</v>
       </c>
@@ -35852,7 +35852,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40694</v>
       </c>
@@ -35942,7 +35942,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40724</v>
       </c>
@@ -36032,7 +36032,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40753</v>
       </c>
@@ -36122,7 +36122,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40786</v>
       </c>
@@ -36212,7 +36212,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40816</v>
       </c>
@@ -36302,7 +36302,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40847</v>
       </c>
@@ -36392,7 +36392,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40877</v>
       </c>
@@ -36482,7 +36482,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40907</v>
       </c>
@@ -36572,7 +36572,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40939</v>
       </c>
@@ -36662,7 +36662,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40968</v>
       </c>
@@ -36752,7 +36752,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40998</v>
       </c>
@@ -36842,7 +36842,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41029</v>
       </c>
@@ -36932,7 +36932,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41060</v>
       </c>
@@ -37022,7 +37022,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41089</v>
       </c>
@@ -37112,7 +37112,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41121</v>
       </c>
@@ -37202,7 +37202,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41152</v>
       </c>
@@ -37292,7 +37292,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41180</v>
       </c>
@@ -37382,7 +37382,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41213</v>
       </c>
@@ -37472,7 +37472,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41243</v>
       </c>
@@ -37562,7 +37562,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41274</v>
       </c>
@@ -37652,7 +37652,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41305</v>
       </c>
@@ -37742,7 +37742,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41333</v>
       </c>
@@ -37832,7 +37832,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41362</v>
       </c>
@@ -37922,7 +37922,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41394</v>
       </c>
@@ -38012,7 +38012,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41425</v>
       </c>
@@ -38102,7 +38102,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41453</v>
       </c>
@@ -38192,7 +38192,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41486</v>
       </c>
@@ -38282,7 +38282,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41516</v>
       </c>
@@ -38372,7 +38372,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41547</v>
       </c>
@@ -38462,7 +38462,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41578</v>
       </c>
@@ -38552,7 +38552,7 @@
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41607</v>
       </c>
@@ -38642,7 +38642,7 @@
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41639</v>
       </c>
@@ -38732,7 +38732,7 @@
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41670</v>
       </c>
@@ -38822,7 +38822,7 @@
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41698</v>
       </c>
@@ -38912,7 +38912,7 @@
       <c r="AO93" s="2"/>
       <c r="AP93" s="2"/>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41729</v>
       </c>
@@ -39002,7 +39002,7 @@
       <c r="AO94" s="2"/>
       <c r="AP94" s="2"/>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41759</v>
       </c>
@@ -39092,7 +39092,7 @@
       <c r="AO95" s="2"/>
       <c r="AP95" s="2"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41789</v>
       </c>
@@ -39182,7 +39182,7 @@
       <c r="AO96" s="2"/>
       <c r="AP96" s="2"/>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41820</v>
       </c>
@@ -39272,7 +39272,7 @@
       <c r="AO97" s="2"/>
       <c r="AP97" s="2"/>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41851</v>
       </c>
@@ -39362,7 +39362,7 @@
       <c r="AO98" s="2"/>
       <c r="AP98" s="2"/>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41880</v>
       </c>
@@ -39452,7 +39452,7 @@
       <c r="AO99" s="2"/>
       <c r="AP99" s="2"/>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41912</v>
       </c>
@@ -39542,7 +39542,7 @@
       <c r="AO100" s="2"/>
       <c r="AP100" s="2"/>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41943</v>
       </c>
@@ -39632,7 +39632,7 @@
       <c r="AO101" s="2"/>
       <c r="AP101" s="2"/>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41971</v>
       </c>
@@ -39722,7 +39722,7 @@
       <c r="AO102" s="2"/>
       <c r="AP102" s="2"/>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42004</v>
       </c>
@@ -39812,7 +39812,7 @@
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
     </row>
-    <row r="104" spans="1:42">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42034</v>
       </c>
@@ -39902,7 +39902,7 @@
       <c r="AO104" s="2"/>
       <c r="AP104" s="2"/>
     </row>
-    <row r="105" spans="1:42">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42062</v>
       </c>
@@ -39992,7 +39992,7 @@
       <c r="AO105" s="2"/>
       <c r="AP105" s="2"/>
     </row>
-    <row r="106" spans="1:42">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42094</v>
       </c>
@@ -40082,7 +40082,7 @@
       <c r="AO106" s="2"/>
       <c r="AP106" s="2"/>
     </row>
-    <row r="107" spans="1:42">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42124</v>
       </c>
@@ -40172,7 +40172,7 @@
       <c r="AO107" s="2"/>
       <c r="AP107" s="2"/>
     </row>
-    <row r="108" spans="1:42">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42153</v>
       </c>
@@ -40262,7 +40262,7 @@
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42185</v>
       </c>
@@ -40352,7 +40352,7 @@
       <c r="AO109" s="2"/>
       <c r="AP109" s="2"/>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42216</v>
       </c>
@@ -40442,7 +40442,7 @@
       <c r="AO110" s="2"/>
       <c r="AP110" s="2"/>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42247</v>
       </c>
@@ -40532,7 +40532,7 @@
       <c r="AO111" s="2"/>
       <c r="AP111" s="2"/>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42277</v>
       </c>
@@ -40622,7 +40622,7 @@
       <c r="AO112" s="2"/>
       <c r="AP112" s="2"/>
     </row>
-    <row r="113" spans="1:42">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42307</v>
       </c>
@@ -40712,7 +40712,7 @@
       <c r="AO113" s="2"/>
       <c r="AP113" s="2"/>
     </row>
-    <row r="114" spans="1:42">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42338</v>
       </c>
@@ -40802,7 +40802,7 @@
       <c r="AO114" s="2"/>
       <c r="AP114" s="2"/>
     </row>
-    <row r="115" spans="1:42">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42369</v>
       </c>
@@ -40892,7 +40892,7 @@
       <c r="AO115" s="2"/>
       <c r="AP115" s="2"/>
     </row>
-    <row r="116" spans="1:42">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42398</v>
       </c>
@@ -40982,7 +40982,7 @@
       <c r="AO116" s="2"/>
       <c r="AP116" s="2"/>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42429</v>
       </c>
@@ -41072,7 +41072,7 @@
       <c r="AO117" s="2"/>
       <c r="AP117" s="2"/>
     </row>
-    <row r="118" spans="1:42">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42460</v>
       </c>
@@ -41162,7 +41162,7 @@
       <c r="AO118" s="2"/>
       <c r="AP118" s="2"/>
     </row>
-    <row r="119" spans="1:42">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42489</v>
       </c>
@@ -41252,7 +41252,7 @@
       <c r="AO119" s="2"/>
       <c r="AP119" s="2"/>
     </row>
-    <row r="120" spans="1:42">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42521</v>
       </c>
@@ -41342,7 +41342,7 @@
       <c r="AO120" s="2"/>
       <c r="AP120" s="2"/>
     </row>
-    <row r="121" spans="1:42">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42551</v>
       </c>
@@ -41432,7 +41432,7 @@
       <c r="AO121" s="2"/>
       <c r="AP121" s="2"/>
     </row>
-    <row r="122" spans="1:42">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42580</v>
       </c>
@@ -41522,7 +41522,7 @@
       <c r="AO122" s="2"/>
       <c r="AP122" s="2"/>
     </row>
-    <row r="123" spans="1:42">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42613</v>
       </c>
@@ -41612,7 +41612,7 @@
       <c r="AO123" s="2"/>
       <c r="AP123" s="2"/>
     </row>
-    <row r="124" spans="1:42">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42643</v>
       </c>
@@ -41702,7 +41702,7 @@
       <c r="AO124" s="2"/>
       <c r="AP124" s="2"/>
     </row>
-    <row r="125" spans="1:42">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42674</v>
       </c>
@@ -41792,7 +41792,7 @@
       <c r="AO125" s="2"/>
       <c r="AP125" s="2"/>
     </row>
-    <row r="126" spans="1:42">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42704</v>
       </c>
@@ -41882,7 +41882,7 @@
       <c r="AO126" s="2"/>
       <c r="AP126" s="2"/>
     </row>
-    <row r="127" spans="1:42">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42734</v>
       </c>
@@ -41972,7 +41972,7 @@
       <c r="AO127" s="2"/>
       <c r="AP127" s="2"/>
     </row>
-    <row r="128" spans="1:42">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42766</v>
       </c>
@@ -42062,7 +42062,7 @@
       <c r="AO128" s="2"/>
       <c r="AP128" s="2"/>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42794</v>
       </c>
@@ -42152,7 +42152,7 @@
       <c r="AO129" s="2"/>
       <c r="AP129" s="2"/>
     </row>
-    <row r="130" spans="1:42">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42825</v>
       </c>
@@ -42242,7 +42242,7 @@
       <c r="AO130" s="2"/>
       <c r="AP130" s="2"/>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
@@ -42332,7 +42332,7 @@
       <c r="AO131" s="2"/>
       <c r="AP131" s="2"/>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42886</v>
       </c>
@@ -42422,7 +42422,7 @@
       <c r="AO132" s="2"/>
       <c r="AP132" s="2"/>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42916</v>
       </c>
@@ -42512,7 +42512,7 @@
       <c r="AO133" s="2"/>
       <c r="AP133" s="2"/>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42947</v>
       </c>
@@ -42602,7 +42602,7 @@
       <c r="AO134" s="2"/>
       <c r="AP134" s="2"/>
     </row>
-    <row r="135" spans="1:42">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42978</v>
       </c>
@@ -42692,7 +42692,7 @@
       <c r="AO135" s="2"/>
       <c r="AP135" s="2"/>
     </row>
-    <row r="136" spans="1:42">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43007</v>
       </c>
@@ -42782,7 +42782,7 @@
       <c r="AO136" s="2"/>
       <c r="AP136" s="2"/>
     </row>
-    <row r="137" spans="1:42">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43039</v>
       </c>
@@ -42872,7 +42872,7 @@
       <c r="AO137" s="2"/>
       <c r="AP137" s="2"/>
     </row>
-    <row r="138" spans="1:42">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43069</v>
       </c>
@@ -42962,7 +42962,7 @@
       <c r="AO138" s="2"/>
       <c r="AP138" s="2"/>
     </row>
-    <row r="139" spans="1:42">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43098</v>
       </c>
@@ -43052,7 +43052,7 @@
       <c r="AO139" s="2"/>
       <c r="AP139" s="2"/>
     </row>
-    <row r="140" spans="1:42">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43131</v>
       </c>
@@ -43142,7 +43142,7 @@
       <c r="AO140" s="2"/>
       <c r="AP140" s="2"/>
     </row>
-    <row r="141" spans="1:42">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43159</v>
       </c>
@@ -43232,7 +43232,7 @@
       <c r="AO141" s="2"/>
       <c r="AP141" s="2"/>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43189</v>
       </c>
@@ -43322,7 +43322,7 @@
       <c r="AO142" s="2"/>
       <c r="AP142" s="2"/>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43220</v>
       </c>
@@ -43412,7 +43412,7 @@
       <c r="AO143" s="2"/>
       <c r="AP143" s="2"/>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43251</v>
       </c>
@@ -43502,7 +43502,7 @@
       <c r="AO144" s="2"/>
       <c r="AP144" s="2"/>
     </row>
-    <row r="145" spans="1:42">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43280</v>
       </c>
@@ -43592,7 +43592,7 @@
       <c r="AO145" s="2"/>
       <c r="AP145" s="2"/>
     </row>
-    <row r="146" spans="1:42">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43312</v>
       </c>
@@ -43682,7 +43682,7 @@
       <c r="AO146" s="2"/>
       <c r="AP146" s="2"/>
     </row>
-    <row r="147" spans="1:42">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43343</v>
       </c>
@@ -43772,7 +43772,7 @@
       <c r="AO147" s="2"/>
       <c r="AP147" s="2"/>
     </row>
-    <row r="148" spans="1:42">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43371</v>
       </c>
@@ -43862,7 +43862,7 @@
       <c r="AO148" s="2"/>
       <c r="AP148" s="2"/>
     </row>
-    <row r="149" spans="1:42">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43404</v>
       </c>
@@ -43952,7 +43952,7 @@
       <c r="AO149" s="2"/>
       <c r="AP149" s="2"/>
     </row>
-    <row r="150" spans="1:42">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
@@ -44042,7 +44042,7 @@
       <c r="AO150" s="2"/>
       <c r="AP150" s="2"/>
     </row>
-    <row r="151" spans="1:42">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
@@ -44132,7 +44132,7 @@
       <c r="AO151" s="2"/>
       <c r="AP151" s="2"/>
     </row>
-    <row r="152" spans="1:42">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
@@ -44222,7 +44222,7 @@
       <c r="AO152" s="2"/>
       <c r="AP152" s="2"/>
     </row>
-    <row r="153" spans="1:42">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
@@ -44312,7 +44312,7 @@
       <c r="AO153" s="2"/>
       <c r="AP153" s="2"/>
     </row>
-    <row r="154" spans="1:42">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
@@ -44402,7 +44402,7 @@
       <c r="AO154" s="2"/>
       <c r="AP154" s="2"/>
     </row>
-    <row r="155" spans="1:42">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43585</v>
       </c>
@@ -44492,7 +44492,7 @@
       <c r="AO155" s="2"/>
       <c r="AP155" s="2"/>
     </row>
-    <row r="156" spans="1:42">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43616</v>
       </c>
@@ -44582,7 +44582,7 @@
       <c r="AO156" s="2"/>
       <c r="AP156" s="2"/>
     </row>
-    <row r="157" spans="1:42">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43644</v>
       </c>
@@ -44672,7 +44672,7 @@
       <c r="AO157" s="2"/>
       <c r="AP157" s="2"/>
     </row>
-    <row r="158" spans="1:42">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
@@ -44762,7 +44762,7 @@
       <c r="AO158" s="2"/>
       <c r="AP158" s="2"/>
     </row>
-    <row r="159" spans="1:42">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
@@ -44852,7 +44852,7 @@
       <c r="AO159" s="2"/>
       <c r="AP159" s="2"/>
     </row>
-    <row r="160" spans="1:42">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43738</v>
       </c>
@@ -44942,7 +44942,7 @@
       <c r="AO160" s="2"/>
       <c r="AP160" s="2"/>
     </row>
-    <row r="161" spans="1:42">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43769</v>
       </c>
@@ -45032,7 +45032,7 @@
       <c r="AO161" s="2"/>
       <c r="AP161" s="2"/>
     </row>
-    <row r="162" spans="1:42">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43798</v>
       </c>
@@ -45122,7 +45122,7 @@
       <c r="AO162" s="2"/>
       <c r="AP162" s="2"/>
     </row>
-    <row r="163" spans="1:42" s="3" customFormat="1">
+    <row r="163" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>43830</v>
       </c>
@@ -45212,7 +45212,7 @@
       <c r="AO163" s="4"/>
       <c r="AP163" s="4"/>
     </row>
-    <row r="164" spans="1:42">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43861</v>
       </c>
@@ -45302,7 +45302,7 @@
       <c r="AO164" s="2"/>
       <c r="AP164" s="2"/>
     </row>
-    <row r="165" spans="1:42">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43889</v>
       </c>
@@ -45392,7 +45392,7 @@
       <c r="AO165" s="2"/>
       <c r="AP165" s="2"/>
     </row>
-    <row r="166" spans="1:42">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43921</v>
       </c>
@@ -45482,7 +45482,7 @@
       <c r="AO166" s="2"/>
       <c r="AP166" s="2"/>
     </row>
-    <row r="167" spans="1:42">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43951</v>
       </c>
@@ -45572,7 +45572,7 @@
       <c r="AO167" s="2"/>
       <c r="AP167" s="2"/>
     </row>
-    <row r="168" spans="1:42">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43980</v>
       </c>
@@ -45662,7 +45662,7 @@
       <c r="AO168" s="2"/>
       <c r="AP168" s="2"/>
     </row>
-    <row r="169" spans="1:42">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44012</v>
       </c>
@@ -45752,7 +45752,7 @@
       <c r="AO169" s="2"/>
       <c r="AP169" s="2"/>
     </row>
-    <row r="170" spans="1:42">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44043</v>
       </c>
@@ -45842,7 +45842,7 @@
       <c r="AO170" s="2"/>
       <c r="AP170" s="2"/>
     </row>
-    <row r="171" spans="1:42">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44074</v>
       </c>
@@ -45932,7 +45932,7 @@
       <c r="AO171" s="2"/>
       <c r="AP171" s="2"/>
     </row>
-    <row r="172" spans="1:42">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44104</v>
       </c>
@@ -46022,7 +46022,7 @@
       <c r="AO172" s="2"/>
       <c r="AP172" s="2"/>
     </row>
-    <row r="173" spans="1:42">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44134</v>
       </c>
@@ -46112,7 +46112,7 @@
       <c r="AO173" s="2"/>
       <c r="AP173" s="2"/>
     </row>
-    <row r="174" spans="1:42">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44165</v>
       </c>
@@ -46202,7 +46202,7 @@
       <c r="AO174" s="2"/>
       <c r="AP174" s="2"/>
     </row>
-    <row r="175" spans="1:42">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44196</v>
       </c>
@@ -46292,7 +46292,7 @@
       <c r="AO175" s="2"/>
       <c r="AP175" s="2"/>
     </row>
-    <row r="176" spans="1:42">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44225</v>
       </c>
@@ -46382,7 +46382,7 @@
       <c r="AO176" s="2"/>
       <c r="AP176" s="2"/>
     </row>
-    <row r="177" spans="1:42">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44253</v>
       </c>
@@ -46472,7 +46472,7 @@
       <c r="AO177" s="2"/>
       <c r="AP177" s="2"/>
     </row>
-    <row r="178" spans="1:42">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44286</v>
       </c>
@@ -46562,7 +46562,7 @@
       <c r="AO178" s="2"/>
       <c r="AP178" s="2"/>
     </row>
-    <row r="179" spans="1:42">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44316</v>
       </c>
@@ -46652,7 +46652,7 @@
       <c r="AO179" s="2"/>
       <c r="AP179" s="2"/>
     </row>
-    <row r="180" spans="1:42">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44347</v>
       </c>
@@ -46742,7 +46742,7 @@
       <c r="AO180" s="2"/>
       <c r="AP180" s="2"/>
     </row>
-    <row r="181" spans="1:42">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44377</v>
       </c>
@@ -46832,7 +46832,7 @@
       <c r="AO181" s="2"/>
       <c r="AP181" s="2"/>
     </row>
-    <row r="182" spans="1:42">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44407</v>
       </c>
@@ -46922,7 +46922,7 @@
       <c r="AO182" s="2"/>
       <c r="AP182" s="2"/>
     </row>
-    <row r="183" spans="1:42">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44439</v>
       </c>
@@ -47012,7 +47012,7 @@
       <c r="AO183" s="2"/>
       <c r="AP183" s="2"/>
     </row>
-    <row r="184" spans="1:42">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44469</v>
       </c>
@@ -47102,7 +47102,7 @@
       <c r="AO184" s="2"/>
       <c r="AP184" s="2"/>
     </row>
-    <row r="185" spans="1:42">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44498</v>
       </c>
@@ -47192,7 +47192,7 @@
       <c r="AO185" s="2"/>
       <c r="AP185" s="2"/>
     </row>
-    <row r="186" spans="1:42">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44530</v>
       </c>
@@ -47282,7 +47282,7 @@
       <c r="AO186" s="2"/>
       <c r="AP186" s="2"/>
     </row>
-    <row r="187" spans="1:42">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44561</v>
       </c>
@@ -47372,7 +47372,7 @@
       <c r="AO187" s="2"/>
       <c r="AP187" s="2"/>
     </row>
-    <row r="188" spans="1:42">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44592</v>
       </c>
@@ -47462,7 +47462,7 @@
       <c r="AO188" s="2"/>
       <c r="AP188" s="2"/>
     </row>
-    <row r="189" spans="1:42">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44620</v>
       </c>
@@ -47552,7 +47552,7 @@
       <c r="AO189" s="2"/>
       <c r="AP189" s="2"/>
     </row>
-    <row r="190" spans="1:42">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44651</v>
       </c>
@@ -47642,7 +47642,7 @@
       <c r="AO190" s="2"/>
       <c r="AP190" s="2"/>
     </row>
-    <row r="191" spans="1:42">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44680</v>
       </c>
@@ -47732,7 +47732,7 @@
       <c r="AO191" s="2"/>
       <c r="AP191" s="2"/>
     </row>
-    <row r="192" spans="1:42">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44712</v>
       </c>
@@ -47822,7 +47822,7 @@
       <c r="AO192" s="2"/>
       <c r="AP192" s="2"/>
     </row>
-    <row r="193" spans="1:42">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44742</v>
       </c>
@@ -47912,7 +47912,7 @@
       <c r="AO193" s="2"/>
       <c r="AP193" s="2"/>
     </row>
-    <row r="194" spans="1:42">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44771</v>
       </c>
@@ -48002,7 +48002,7 @@
       <c r="AO194" s="2"/>
       <c r="AP194" s="2"/>
     </row>
-    <row r="195" spans="1:42">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44804</v>
       </c>
@@ -48092,7 +48092,7 @@
       <c r="AO195" s="2"/>
       <c r="AP195" s="2"/>
     </row>
-    <row r="196" spans="1:42">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44834</v>
       </c>
@@ -48182,7 +48182,7 @@
       <c r="AO196" s="2"/>
       <c r="AP196" s="2"/>
     </row>
-    <row r="197" spans="1:42">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44865</v>
       </c>
@@ -48272,7 +48272,7 @@
       <c r="AO197" s="2"/>
       <c r="AP197" s="2"/>
     </row>
-    <row r="198" spans="1:42">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44895</v>
       </c>
@@ -48362,7 +48362,7 @@
       <c r="AO198" s="2"/>
       <c r="AP198" s="2"/>
     </row>
-    <row r="199" spans="1:42">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44925</v>
       </c>
@@ -48452,7 +48452,7 @@
       <c r="AO199" s="2"/>
       <c r="AP199" s="2"/>
     </row>
-    <row r="200" spans="1:42">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44957</v>
       </c>
@@ -48542,7 +48542,7 @@
       <c r="AO200" s="2"/>
       <c r="AP200" s="2"/>
     </row>
-    <row r="201" spans="1:42">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44985</v>
       </c>
@@ -48632,7 +48632,7 @@
       <c r="AO201" s="2"/>
       <c r="AP201" s="2"/>
     </row>
-    <row r="202" spans="1:42">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45016</v>
       </c>
@@ -48722,7 +48722,7 @@
       <c r="AO202" s="2"/>
       <c r="AP202" s="2"/>
     </row>
-    <row r="203" spans="1:42">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45044</v>
       </c>
@@ -48812,7 +48812,7 @@
       <c r="AO203" s="2"/>
       <c r="AP203" s="2"/>
     </row>
-    <row r="204" spans="1:42">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45077</v>
       </c>
@@ -48902,7 +48902,7 @@
       <c r="AO204" s="2"/>
       <c r="AP204" s="2"/>
     </row>
-    <row r="205" spans="1:42">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45107</v>
       </c>
@@ -48992,7 +48992,7 @@
       <c r="AO205" s="2"/>
       <c r="AP205" s="2"/>
     </row>
-    <row r="206" spans="1:42">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45138</v>
       </c>
@@ -49082,7 +49082,7 @@
       <c r="AO206" s="2"/>
       <c r="AP206" s="2"/>
     </row>
-    <row r="207" spans="1:42">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45169</v>
       </c>
@@ -49172,7 +49172,7 @@
       <c r="AO207" s="2"/>
       <c r="AP207" s="2"/>
     </row>
-    <row r="208" spans="1:42">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45198</v>
       </c>
@@ -49262,7 +49262,7 @@
       <c r="AO208" s="2"/>
       <c r="AP208" s="2"/>
     </row>
-    <row r="209" spans="1:42">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45230</v>
       </c>
@@ -49352,7 +49352,7 @@
       <c r="AO209" s="2"/>
       <c r="AP209" s="2"/>
     </row>
-    <row r="210" spans="1:42">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45260</v>
       </c>
@@ -49442,7 +49442,7 @@
       <c r="AO210" s="2"/>
       <c r="AP210" s="2"/>
     </row>
-    <row r="211" spans="1:42">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45289</v>
       </c>
@@ -49532,7 +49532,7 @@
       <c r="AO211" s="2"/>
       <c r="AP211" s="2"/>
     </row>
-    <row r="212" spans="1:42">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45322</v>
       </c>
@@ -49622,7 +49622,7 @@
       <c r="AO212" s="2"/>
       <c r="AP212" s="2"/>
     </row>
-    <row r="213" spans="1:42">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45351</v>
       </c>
@@ -49712,7 +49712,7 @@
       <c r="AO213" s="2"/>
       <c r="AP213" s="2"/>
     </row>
-    <row r="214" spans="1:42">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45380</v>
       </c>
@@ -49802,7 +49802,7 @@
       <c r="AO214" s="2"/>
       <c r="AP214" s="2"/>
     </row>
-    <row r="215" spans="1:42">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45412</v>
       </c>
@@ -49892,7 +49892,7 @@
       <c r="AO215" s="2"/>
       <c r="AP215" s="2"/>
     </row>
-    <row r="216" spans="1:42">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45443</v>
       </c>
@@ -49982,7 +49982,7 @@
       <c r="AO216" s="2"/>
       <c r="AP216" s="2"/>
     </row>
-    <row r="217" spans="1:42">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45471</v>
       </c>
@@ -50072,7 +50072,7 @@
       <c r="AO217" s="2"/>
       <c r="AP217" s="2"/>
     </row>
-    <row r="218" spans="1:42">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45504</v>
       </c>
@@ -50162,7 +50162,7 @@
       <c r="AO218" s="2"/>
       <c r="AP218" s="2"/>
     </row>
-    <row r="219" spans="1:42">
+    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45534</v>
       </c>
@@ -50252,7 +50252,7 @@
       <c r="AO219" s="2"/>
       <c r="AP219" s="2"/>
     </row>
-    <row r="220" spans="1:42">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45565</v>
       </c>
@@ -50342,7 +50342,7 @@
       <c r="AO220" s="2"/>
       <c r="AP220" s="2"/>
     </row>
-    <row r="221" spans="1:42">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45596</v>
       </c>
@@ -50432,7 +50432,7 @@
       <c r="AO221" s="2"/>
       <c r="AP221" s="2"/>
     </row>
-    <row r="222" spans="1:42">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45625</v>
       </c>
@@ -50522,7 +50522,7 @@
       <c r="AO222" s="2"/>
       <c r="AP222" s="2"/>
     </row>
-    <row r="223" spans="1:42">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45657</v>
       </c>
@@ -50612,7 +50612,7 @@
       <c r="AO223" s="2"/>
       <c r="AP223" s="2"/>
     </row>
-    <row r="224" spans="1:42">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45688</v>
       </c>
@@ -50702,7 +50702,7 @@
       <c r="AO224" s="2"/>
       <c r="AP224" s="2"/>
     </row>
-    <row r="225" spans="1:42">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45716</v>
       </c>
@@ -50792,7 +50792,7 @@
       <c r="AO225" s="2"/>
       <c r="AP225" s="2"/>
     </row>
-    <row r="226" spans="1:42">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45747</v>
       </c>
@@ -50882,7 +50882,7 @@
       <c r="AO226" s="2"/>
       <c r="AP226" s="2"/>
     </row>
-    <row r="227" spans="1:42">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45777</v>
       </c>
@@ -50972,7 +50972,7 @@
       <c r="AO227" s="2"/>
       <c r="AP227" s="2"/>
     </row>
-    <row r="228" spans="1:42">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45807</v>
       </c>
@@ -51062,7 +51062,7 @@
       <c r="AO228" s="2"/>
       <c r="AP228" s="2"/>
     </row>
-    <row r="229" spans="1:42">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45838</v>
       </c>
@@ -51152,7 +51152,7 @@
       <c r="AO229" s="2"/>
       <c r="AP229" s="2"/>
     </row>
-    <row r="230" spans="1:42">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -51196,7 +51196,7 @@
       <c r="AO230" s="2"/>
       <c r="AP230" s="2"/>
     </row>
-    <row r="231" spans="1:42">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -51240,7 +51240,7 @@
       <c r="AO231" s="2"/>
       <c r="AP231" s="2"/>
     </row>
-    <row r="232" spans="1:42">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -51284,7 +51284,7 @@
       <c r="AO232" s="2"/>
       <c r="AP232" s="2"/>
     </row>
-    <row r="233" spans="1:42">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -51328,7 +51328,7 @@
       <c r="AO233" s="2"/>
       <c r="AP233" s="2"/>
     </row>
-    <row r="234" spans="1:42">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -51372,7 +51372,7 @@
       <c r="AO234" s="2"/>
       <c r="AP234" s="2"/>
     </row>
-    <row r="235" spans="1:42">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -51416,7 +51416,7 @@
       <c r="AO235" s="2"/>
       <c r="AP235" s="2"/>
     </row>
-    <row r="236" spans="1:42">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -51460,7 +51460,7 @@
       <c r="AO236" s="2"/>
       <c r="AP236" s="2"/>
     </row>
-    <row r="237" spans="1:42">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -51504,7 +51504,7 @@
       <c r="AO237" s="2"/>
       <c r="AP237" s="2"/>
     </row>
-    <row r="238" spans="1:42">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -51548,7 +51548,7 @@
       <c r="AO238" s="2"/>
       <c r="AP238" s="2"/>
     </row>
-    <row r="239" spans="1:42">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -51592,7 +51592,7 @@
       <c r="AO239" s="2"/>
       <c r="AP239" s="2"/>
     </row>
-    <row r="240" spans="1:42">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -51636,7 +51636,7 @@
       <c r="AO240" s="2"/>
       <c r="AP240" s="2"/>
     </row>
-    <row r="241" spans="1:42">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -51680,7 +51680,7 @@
       <c r="AO241" s="2"/>
       <c r="AP241" s="2"/>
     </row>
-    <row r="242" spans="1:42">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -51724,7 +51724,7 @@
       <c r="AO242" s="2"/>
       <c r="AP242" s="2"/>
     </row>
-    <row r="243" spans="1:42">
+    <row r="243" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -51768,7 +51768,7 @@
       <c r="AO243" s="2"/>
       <c r="AP243" s="2"/>
     </row>
-    <row r="244" spans="1:42">
+    <row r="244" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -51812,7 +51812,7 @@
       <c r="AO244" s="2"/>
       <c r="AP244" s="2"/>
     </row>
-    <row r="245" spans="1:42">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -51856,7 +51856,7 @@
       <c r="AO245" s="2"/>
       <c r="AP245" s="2"/>
     </row>
-    <row r="246" spans="1:42">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -51900,7 +51900,7 @@
       <c r="AO246" s="2"/>
       <c r="AP246" s="2"/>
     </row>
-    <row r="247" spans="1:42">
+    <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -51944,7 +51944,7 @@
       <c r="AO247" s="2"/>
       <c r="AP247" s="2"/>
     </row>
-    <row r="248" spans="1:42">
+    <row r="248" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -51988,7 +51988,7 @@
       <c r="AO248" s="2"/>
       <c r="AP248" s="2"/>
     </row>
-    <row r="249" spans="1:42">
+    <row r="249" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -52032,7 +52032,7 @@
       <c r="AO249" s="2"/>
       <c r="AP249" s="2"/>
     </row>
-    <row r="250" spans="1:42">
+    <row r="250" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -52076,7 +52076,7 @@
       <c r="AO250" s="2"/>
       <c r="AP250" s="2"/>
     </row>
-    <row r="251" spans="1:42">
+    <row r="251" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -52120,7 +52120,7 @@
       <c r="AO251" s="2"/>
       <c r="AP251" s="2"/>
     </row>
-    <row r="252" spans="1:42">
+    <row r="252" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -52164,7 +52164,7 @@
       <c r="AO252" s="2"/>
       <c r="AP252" s="2"/>
     </row>
-    <row r="253" spans="1:42">
+    <row r="253" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -52208,7 +52208,7 @@
       <c r="AO253" s="2"/>
       <c r="AP253" s="2"/>
     </row>
-    <row r="254" spans="1:42">
+    <row r="254" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -52252,7 +52252,7 @@
       <c r="AO254" s="2"/>
       <c r="AP254" s="2"/>
     </row>
-    <row r="255" spans="1:42">
+    <row r="255" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -52296,7 +52296,7 @@
       <c r="AO255" s="2"/>
       <c r="AP255" s="2"/>
     </row>
-    <row r="256" spans="1:42">
+    <row r="256" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -52340,7 +52340,7 @@
       <c r="AO256" s="2"/>
       <c r="AP256" s="2"/>
     </row>
-    <row r="257" spans="1:42">
+    <row r="257" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -52384,7 +52384,7 @@
       <c r="AO257" s="2"/>
       <c r="AP257" s="2"/>
     </row>
-    <row r="258" spans="1:42">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -52428,7 +52428,7 @@
       <c r="AO258" s="2"/>
       <c r="AP258" s="2"/>
     </row>
-    <row r="259" spans="1:42">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -52472,7 +52472,7 @@
       <c r="AO259" s="2"/>
       <c r="AP259" s="2"/>
     </row>
-    <row r="260" spans="1:42">
+    <row r="260" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -52516,7 +52516,7 @@
       <c r="AO260" s="2"/>
       <c r="AP260" s="2"/>
     </row>
-    <row r="261" spans="1:42">
+    <row r="261" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -52560,7 +52560,7 @@
       <c r="AO261" s="2"/>
       <c r="AP261" s="2"/>
     </row>
-    <row r="262" spans="1:42">
+    <row r="262" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -52604,7 +52604,7 @@
       <c r="AO262" s="2"/>
       <c r="AP262" s="2"/>
     </row>
-    <row r="263" spans="1:42">
+    <row r="263" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -52648,7 +52648,7 @@
       <c r="AO263" s="2"/>
       <c r="AP263" s="2"/>
     </row>
-    <row r="264" spans="1:42">
+    <row r="264" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -52692,7 +52692,7 @@
       <c r="AO264" s="2"/>
       <c r="AP264" s="2"/>
     </row>
-    <row r="265" spans="1:42">
+    <row r="265" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -52736,7 +52736,7 @@
       <c r="AO265" s="2"/>
       <c r="AP265" s="2"/>
     </row>
-    <row r="266" spans="1:42">
+    <row r="266" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -52780,7 +52780,7 @@
       <c r="AO266" s="2"/>
       <c r="AP266" s="2"/>
     </row>
-    <row r="267" spans="1:42">
+    <row r="267" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -52824,7 +52824,7 @@
       <c r="AO267" s="2"/>
       <c r="AP267" s="2"/>
     </row>
-    <row r="268" spans="1:42">
+    <row r="268" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -52868,7 +52868,7 @@
       <c r="AO268" s="2"/>
       <c r="AP268" s="2"/>
     </row>
-    <row r="269" spans="1:42">
+    <row r="269" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -52912,7 +52912,7 @@
       <c r="AO269" s="2"/>
       <c r="AP269" s="2"/>
     </row>
-    <row r="270" spans="1:42">
+    <row r="270" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -52956,7 +52956,7 @@
       <c r="AO270" s="2"/>
       <c r="AP270" s="2"/>
     </row>
-    <row r="271" spans="1:42">
+    <row r="271" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -53000,7 +53000,7 @@
       <c r="AO271" s="2"/>
       <c r="AP271" s="2"/>
     </row>
-    <row r="272" spans="1:42">
+    <row r="272" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -53044,7 +53044,7 @@
       <c r="AO272" s="2"/>
       <c r="AP272" s="2"/>
     </row>
-    <row r="273" spans="1:42">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -53088,7 +53088,7 @@
       <c r="AO273" s="2"/>
       <c r="AP273" s="2"/>
     </row>
-    <row r="274" spans="1:42">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -53132,7 +53132,7 @@
       <c r="AO274" s="2"/>
       <c r="AP274" s="2"/>
     </row>
-    <row r="275" spans="1:42">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -53176,7 +53176,7 @@
       <c r="AO275" s="2"/>
       <c r="AP275" s="2"/>
     </row>
-    <row r="276" spans="1:42">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -53220,7 +53220,7 @@
       <c r="AO276" s="2"/>
       <c r="AP276" s="2"/>
     </row>
-    <row r="277" spans="1:42">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -53264,7 +53264,7 @@
       <c r="AO277" s="2"/>
       <c r="AP277" s="2"/>
     </row>
-    <row r="278" spans="1:42">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -53308,7 +53308,7 @@
       <c r="AO278" s="2"/>
       <c r="AP278" s="2"/>
     </row>
-    <row r="279" spans="1:42">
+    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -53352,7 +53352,7 @@
       <c r="AO279" s="2"/>
       <c r="AP279" s="2"/>
     </row>
-    <row r="280" spans="1:42">
+    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -53396,7 +53396,7 @@
       <c r="AO280" s="2"/>
       <c r="AP280" s="2"/>
     </row>
-    <row r="281" spans="1:42">
+    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -53440,7 +53440,7 @@
       <c r="AO281" s="2"/>
       <c r="AP281" s="2"/>
     </row>
-    <row r="282" spans="1:42">
+    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -53484,7 +53484,7 @@
       <c r="AO282" s="2"/>
       <c r="AP282" s="2"/>
     </row>
-    <row r="283" spans="1:42">
+    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -53528,7 +53528,7 @@
       <c r="AO283" s="2"/>
       <c r="AP283" s="2"/>
     </row>
-    <row r="284" spans="1:42">
+    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -53572,7 +53572,7 @@
       <c r="AO284" s="2"/>
       <c r="AP284" s="2"/>
     </row>
-    <row r="285" spans="1:42">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -53616,7 +53616,7 @@
       <c r="AO285" s="2"/>
       <c r="AP285" s="2"/>
     </row>
-    <row r="286" spans="1:42">
+    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -53660,7 +53660,7 @@
       <c r="AO286" s="2"/>
       <c r="AP286" s="2"/>
     </row>
-    <row r="287" spans="1:42">
+    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -53704,7 +53704,7 @@
       <c r="AO287" s="2"/>
       <c r="AP287" s="2"/>
     </row>
-    <row r="288" spans="1:42">
+    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -53748,7 +53748,7 @@
       <c r="AO288" s="2"/>
       <c r="AP288" s="2"/>
     </row>
-    <row r="289" spans="1:42">
+    <row r="289" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -53792,7 +53792,7 @@
       <c r="AO289" s="2"/>
       <c r="AP289" s="2"/>
     </row>
-    <row r="290" spans="1:42">
+    <row r="290" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -53836,7 +53836,7 @@
       <c r="AO290" s="2"/>
       <c r="AP290" s="2"/>
     </row>
-    <row r="291" spans="1:42">
+    <row r="291" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -53880,7 +53880,7 @@
       <c r="AO291" s="2"/>
       <c r="AP291" s="2"/>
     </row>
-    <row r="292" spans="1:42">
+    <row r="292" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -53924,7 +53924,7 @@
       <c r="AO292" s="2"/>
       <c r="AP292" s="2"/>
     </row>
-    <row r="293" spans="1:42">
+    <row r="293" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -53968,7 +53968,7 @@
       <c r="AO293" s="2"/>
       <c r="AP293" s="2"/>
     </row>
-    <row r="294" spans="1:42">
+    <row r="294" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -54012,7 +54012,7 @@
       <c r="AO294" s="2"/>
       <c r="AP294" s="2"/>
     </row>
-    <row r="295" spans="1:42">
+    <row r="295" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -54056,7 +54056,7 @@
       <c r="AO295" s="2"/>
       <c r="AP295" s="2"/>
     </row>
-    <row r="296" spans="1:42">
+    <row r="296" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -54100,7 +54100,7 @@
       <c r="AO296" s="2"/>
       <c r="AP296" s="2"/>
     </row>
-    <row r="297" spans="1:42">
+    <row r="297" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -54144,7 +54144,7 @@
       <c r="AO297" s="2"/>
       <c r="AP297" s="2"/>
     </row>
-    <row r="298" spans="1:42">
+    <row r="298" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -54188,7 +54188,7 @@
       <c r="AO298" s="2"/>
       <c r="AP298" s="2"/>
     </row>
-    <row r="299" spans="1:42">
+    <row r="299" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -54232,7 +54232,7 @@
       <c r="AO299" s="2"/>
       <c r="AP299" s="2"/>
     </row>
-    <row r="300" spans="1:42">
+    <row r="300" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -54276,7 +54276,7 @@
       <c r="AO300" s="2"/>
       <c r="AP300" s="2"/>
     </row>
-    <row r="301" spans="1:42">
+    <row r="301" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -54320,7 +54320,7 @@
       <c r="AO301" s="2"/>
       <c r="AP301" s="2"/>
     </row>
-    <row r="302" spans="1:42">
+    <row r="302" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -54364,7 +54364,7 @@
       <c r="AO302" s="2"/>
       <c r="AP302" s="2"/>
     </row>
-    <row r="303" spans="1:42">
+    <row r="303" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -54408,7 +54408,7 @@
       <c r="AO303" s="2"/>
       <c r="AP303" s="2"/>
     </row>
-    <row r="304" spans="1:42">
+    <row r="304" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -54452,7 +54452,7 @@
       <c r="AO304" s="2"/>
       <c r="AP304" s="2"/>
     </row>
-    <row r="305" spans="1:42">
+    <row r="305" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -54496,7 +54496,7 @@
       <c r="AO305" s="2"/>
       <c r="AP305" s="2"/>
     </row>
-    <row r="306" spans="1:42">
+    <row r="306" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -54540,7 +54540,7 @@
       <c r="AO306" s="2"/>
       <c r="AP306" s="2"/>
     </row>
-    <row r="307" spans="1:42">
+    <row r="307" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -54584,7 +54584,7 @@
       <c r="AO307" s="2"/>
       <c r="AP307" s="2"/>
     </row>
-    <row r="308" spans="1:42">
+    <row r="308" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -54628,7 +54628,7 @@
       <c r="AO308" s="2"/>
       <c r="AP308" s="2"/>
     </row>
-    <row r="309" spans="1:42">
+    <row r="309" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -54672,7 +54672,7 @@
       <c r="AO309" s="2"/>
       <c r="AP309" s="2"/>
     </row>
-    <row r="310" spans="1:42">
+    <row r="310" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -54716,7 +54716,7 @@
       <c r="AO310" s="2"/>
       <c r="AP310" s="2"/>
     </row>
-    <row r="311" spans="1:42">
+    <row r="311" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -54760,7 +54760,7 @@
       <c r="AO311" s="2"/>
       <c r="AP311" s="2"/>
     </row>
-    <row r="312" spans="1:42">
+    <row r="312" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -54804,7 +54804,7 @@
       <c r="AO312" s="2"/>
       <c r="AP312" s="2"/>
     </row>
-    <row r="313" spans="1:42">
+    <row r="313" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -54848,7 +54848,7 @@
       <c r="AO313" s="2"/>
       <c r="AP313" s="2"/>
     </row>
-    <row r="314" spans="1:42">
+    <row r="314" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -54892,7 +54892,7 @@
       <c r="AO314" s="2"/>
       <c r="AP314" s="2"/>
     </row>
-    <row r="315" spans="1:42">
+    <row r="315" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -54936,7 +54936,7 @@
       <c r="AO315" s="2"/>
       <c r="AP315" s="2"/>
     </row>
-    <row r="316" spans="1:42">
+    <row r="316" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -54980,7 +54980,7 @@
       <c r="AO316" s="2"/>
       <c r="AP316" s="2"/>
     </row>
-    <row r="317" spans="1:42">
+    <row r="317" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -55024,7 +55024,7 @@
       <c r="AO317" s="2"/>
       <c r="AP317" s="2"/>
     </row>
-    <row r="318" spans="1:42">
+    <row r="318" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -55068,7 +55068,7 @@
       <c r="AO318" s="2"/>
       <c r="AP318" s="2"/>
     </row>
-    <row r="319" spans="1:42">
+    <row r="319" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -55112,7 +55112,7 @@
       <c r="AO319" s="2"/>
       <c r="AP319" s="2"/>
     </row>
-    <row r="320" spans="1:42">
+    <row r="320" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -55156,7 +55156,7 @@
       <c r="AO320" s="2"/>
       <c r="AP320" s="2"/>
     </row>
-    <row r="321" spans="1:42">
+    <row r="321" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -55200,7 +55200,7 @@
       <c r="AO321" s="2"/>
       <c r="AP321" s="2"/>
     </row>
-    <row r="322" spans="1:42">
+    <row r="322" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -55244,7 +55244,7 @@
       <c r="AO322" s="2"/>
       <c r="AP322" s="2"/>
     </row>
-    <row r="323" spans="1:42">
+    <row r="323" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -55288,7 +55288,7 @@
       <c r="AO323" s="2"/>
       <c r="AP323" s="2"/>
     </row>
-    <row r="324" spans="1:42">
+    <row r="324" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -55332,7 +55332,7 @@
       <c r="AO324" s="2"/>
       <c r="AP324" s="2"/>
     </row>
-    <row r="325" spans="1:42">
+    <row r="325" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -55376,7 +55376,7 @@
       <c r="AO325" s="2"/>
       <c r="AP325" s="2"/>
     </row>
-    <row r="326" spans="1:42">
+    <row r="326" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -55420,7 +55420,7 @@
       <c r="AO326" s="2"/>
       <c r="AP326" s="2"/>
     </row>
-    <row r="327" spans="1:42">
+    <row r="327" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -55464,7 +55464,7 @@
       <c r="AO327" s="2"/>
       <c r="AP327" s="2"/>
     </row>
-    <row r="328" spans="1:42">
+    <row r="328" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -55508,7 +55508,7 @@
       <c r="AO328" s="2"/>
       <c r="AP328" s="2"/>
     </row>
-    <row r="329" spans="1:42">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -55552,7 +55552,7 @@
       <c r="AO329" s="2"/>
       <c r="AP329" s="2"/>
     </row>
-    <row r="330" spans="1:42">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -55596,7 +55596,7 @@
       <c r="AO330" s="2"/>
       <c r="AP330" s="2"/>
     </row>
-    <row r="331" spans="1:42">
+    <row r="331" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -55640,7 +55640,7 @@
       <c r="AO331" s="2"/>
       <c r="AP331" s="2"/>
     </row>
-    <row r="332" spans="1:42">
+    <row r="332" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -55684,7 +55684,7 @@
       <c r="AO332" s="2"/>
       <c r="AP332" s="2"/>
     </row>
-    <row r="333" spans="1:42">
+    <row r="333" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -55728,7 +55728,7 @@
       <c r="AO333" s="2"/>
       <c r="AP333" s="2"/>
     </row>
-    <row r="334" spans="1:42">
+    <row r="334" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -55772,7 +55772,7 @@
       <c r="AO334" s="2"/>
       <c r="AP334" s="2"/>
     </row>
-    <row r="335" spans="1:42">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -55816,7 +55816,7 @@
       <c r="AO335" s="2"/>
       <c r="AP335" s="2"/>
     </row>
-    <row r="336" spans="1:42">
+    <row r="336" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -55860,7 +55860,7 @@
       <c r="AO336" s="2"/>
       <c r="AP336" s="2"/>
     </row>
-    <row r="337" spans="1:42">
+    <row r="337" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -55904,7 +55904,7 @@
       <c r="AO337" s="2"/>
       <c r="AP337" s="2"/>
     </row>
-    <row r="338" spans="1:42">
+    <row r="338" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -55948,7 +55948,7 @@
       <c r="AO338" s="2"/>
       <c r="AP338" s="2"/>
     </row>
-    <row r="339" spans="1:42">
+    <row r="339" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -55992,7 +55992,7 @@
       <c r="AO339" s="2"/>
       <c r="AP339" s="2"/>
     </row>
-    <row r="340" spans="1:42">
+    <row r="340" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -56036,7 +56036,7 @@
       <c r="AO340" s="2"/>
       <c r="AP340" s="2"/>
     </row>
-    <row r="341" spans="1:42">
+    <row r="341" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -56080,7 +56080,7 @@
       <c r="AO341" s="2"/>
       <c r="AP341" s="2"/>
     </row>
-    <row r="342" spans="1:42">
+    <row r="342" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -56124,7 +56124,7 @@
       <c r="AO342" s="2"/>
       <c r="AP342" s="2"/>
     </row>
-    <row r="343" spans="1:42">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -56168,7 +56168,7 @@
       <c r="AO343" s="2"/>
       <c r="AP343" s="2"/>
     </row>
-    <row r="344" spans="1:42">
+    <row r="344" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -56212,7 +56212,7 @@
       <c r="AO344" s="2"/>
       <c r="AP344" s="2"/>
     </row>
-    <row r="345" spans="1:42">
+    <row r="345" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -56256,7 +56256,7 @@
       <c r="AO345" s="2"/>
       <c r="AP345" s="2"/>
     </row>
-    <row r="346" spans="1:42">
+    <row r="346" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -56300,7 +56300,7 @@
       <c r="AO346" s="2"/>
       <c r="AP346" s="2"/>
     </row>
-    <row r="347" spans="1:42">
+    <row r="347" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -56344,7 +56344,7 @@
       <c r="AO347" s="2"/>
       <c r="AP347" s="2"/>
     </row>
-    <row r="348" spans="1:42">
+    <row r="348" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -56388,7 +56388,7 @@
       <c r="AO348" s="2"/>
       <c r="AP348" s="2"/>
     </row>
-    <row r="349" spans="1:42">
+    <row r="349" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -56432,7 +56432,7 @@
       <c r="AO349" s="2"/>
       <c r="AP349" s="2"/>
     </row>
-    <row r="350" spans="1:42">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -56476,7 +56476,7 @@
       <c r="AO350" s="2"/>
       <c r="AP350" s="2"/>
     </row>
-    <row r="351" spans="1:42">
+    <row r="351" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -56520,7 +56520,7 @@
       <c r="AO351" s="2"/>
       <c r="AP351" s="2"/>
     </row>
-    <row r="352" spans="1:42">
+    <row r="352" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -56564,7 +56564,7 @@
       <c r="AO352" s="2"/>
       <c r="AP352" s="2"/>
     </row>
-    <row r="353" spans="1:42">
+    <row r="353" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -56608,7 +56608,7 @@
       <c r="AO353" s="2"/>
       <c r="AP353" s="2"/>
     </row>
-    <row r="354" spans="1:42">
+    <row r="354" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -56652,7 +56652,7 @@
       <c r="AO354" s="2"/>
       <c r="AP354" s="2"/>
     </row>
-    <row r="355" spans="1:42">
+    <row r="355" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -56696,7 +56696,7 @@
       <c r="AO355" s="2"/>
       <c r="AP355" s="2"/>
     </row>
-    <row r="356" spans="1:42">
+    <row r="356" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -56740,7 +56740,7 @@
       <c r="AO356" s="2"/>
       <c r="AP356" s="2"/>
     </row>
-    <row r="357" spans="1:42">
+    <row r="357" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -56784,7 +56784,7 @@
       <c r="AO357" s="2"/>
       <c r="AP357" s="2"/>
     </row>
-    <row r="358" spans="1:42">
+    <row r="358" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -56828,7 +56828,7 @@
       <c r="AO358" s="2"/>
       <c r="AP358" s="2"/>
     </row>
-    <row r="359" spans="1:42">
+    <row r="359" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -56872,7 +56872,7 @@
       <c r="AO359" s="2"/>
       <c r="AP359" s="2"/>
     </row>
-    <row r="360" spans="1:42">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -56916,7 +56916,7 @@
       <c r="AO360" s="2"/>
       <c r="AP360" s="2"/>
     </row>
-    <row r="361" spans="1:42">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -56960,7 +56960,7 @@
       <c r="AO361" s="2"/>
       <c r="AP361" s="2"/>
     </row>
-    <row r="362" spans="1:42">
+    <row r="362" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -57004,7 +57004,7 @@
       <c r="AO362" s="2"/>
       <c r="AP362" s="2"/>
     </row>
-    <row r="363" spans="1:42">
+    <row r="363" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -57048,7 +57048,7 @@
       <c r="AO363" s="2"/>
       <c r="AP363" s="2"/>
     </row>
-    <row r="364" spans="1:42">
+    <row r="364" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -57092,7 +57092,7 @@
       <c r="AO364" s="2"/>
       <c r="AP364" s="2"/>
     </row>
-    <row r="365" spans="1:42">
+    <row r="365" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -57136,7 +57136,7 @@
       <c r="AO365" s="2"/>
       <c r="AP365" s="2"/>
     </row>
-    <row r="366" spans="1:42">
+    <row r="366" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -57180,7 +57180,7 @@
       <c r="AO366" s="2"/>
       <c r="AP366" s="2"/>
     </row>
-    <row r="367" spans="1:42">
+    <row r="367" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -57224,7 +57224,7 @@
       <c r="AO367" s="2"/>
       <c r="AP367" s="2"/>
     </row>
-    <row r="368" spans="1:42">
+    <row r="368" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -57268,7 +57268,7 @@
       <c r="AO368" s="2"/>
       <c r="AP368" s="2"/>
     </row>
-    <row r="369" spans="1:42">
+    <row r="369" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -57312,7 +57312,7 @@
       <c r="AO369" s="2"/>
       <c r="AP369" s="2"/>
     </row>
-    <row r="370" spans="1:42">
+    <row r="370" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -57356,7 +57356,7 @@
       <c r="AO370" s="2"/>
       <c r="AP370" s="2"/>
     </row>
-    <row r="371" spans="1:42">
+    <row r="371" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -57400,7 +57400,7 @@
       <c r="AO371" s="2"/>
       <c r="AP371" s="2"/>
     </row>
-    <row r="372" spans="1:42">
+    <row r="372" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -57444,7 +57444,7 @@
       <c r="AO372" s="2"/>
       <c r="AP372" s="2"/>
     </row>
-    <row r="373" spans="1:42">
+    <row r="373" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -57488,7 +57488,7 @@
       <c r="AO373" s="2"/>
       <c r="AP373" s="2"/>
     </row>
-    <row r="374" spans="1:42">
+    <row r="374" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -57532,7 +57532,7 @@
       <c r="AO374" s="2"/>
       <c r="AP374" s="2"/>
     </row>
-    <row r="375" spans="1:42">
+    <row r="375" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -57576,7 +57576,7 @@
       <c r="AO375" s="2"/>
       <c r="AP375" s="2"/>
     </row>
-    <row r="376" spans="1:42">
+    <row r="376" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -57620,7 +57620,7 @@
       <c r="AO376" s="2"/>
       <c r="AP376" s="2"/>
     </row>
-    <row r="377" spans="1:42">
+    <row r="377" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -57664,7 +57664,7 @@
       <c r="AO377" s="2"/>
       <c r="AP377" s="2"/>
     </row>
-    <row r="378" spans="1:42">
+    <row r="378" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -57708,7 +57708,7 @@
       <c r="AO378" s="2"/>
       <c r="AP378" s="2"/>
     </row>
-    <row r="379" spans="1:42">
+    <row r="379" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -57752,7 +57752,7 @@
       <c r="AO379" s="2"/>
       <c r="AP379" s="2"/>
     </row>
-    <row r="380" spans="1:42">
+    <row r="380" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -57796,7 +57796,7 @@
       <c r="AO380" s="2"/>
       <c r="AP380" s="2"/>
     </row>
-    <row r="381" spans="1:42">
+    <row r="381" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -57840,7 +57840,7 @@
       <c r="AO381" s="2"/>
       <c r="AP381" s="2"/>
     </row>
-    <row r="382" spans="1:42">
+    <row r="382" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -57884,7 +57884,7 @@
       <c r="AO382" s="2"/>
       <c r="AP382" s="2"/>
     </row>
-    <row r="383" spans="1:42">
+    <row r="383" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -57928,7 +57928,7 @@
       <c r="AO383" s="2"/>
       <c r="AP383" s="2"/>
     </row>
-    <row r="384" spans="1:42">
+    <row r="384" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -57972,7 +57972,7 @@
       <c r="AO384" s="2"/>
       <c r="AP384" s="2"/>
     </row>
-    <row r="385" spans="1:42">
+    <row r="385" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -58016,7 +58016,7 @@
       <c r="AO385" s="2"/>
       <c r="AP385" s="2"/>
     </row>
-    <row r="386" spans="1:42">
+    <row r="386" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -58060,7 +58060,7 @@
       <c r="AO386" s="2"/>
       <c r="AP386" s="2"/>
     </row>
-    <row r="387" spans="1:42">
+    <row r="387" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -58104,7 +58104,7 @@
       <c r="AO387" s="2"/>
       <c r="AP387" s="2"/>
     </row>
-    <row r="388" spans="1:42">
+    <row r="388" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -58148,7 +58148,7 @@
       <c r="AO388" s="2"/>
       <c r="AP388" s="2"/>
     </row>
-    <row r="389" spans="1:42">
+    <row r="389" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -58192,7 +58192,7 @@
       <c r="AO389" s="2"/>
       <c r="AP389" s="2"/>
     </row>
-    <row r="390" spans="1:42">
+    <row r="390" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -58236,1017 +58236,1017 @@
       <c r="AO390" s="2"/>
       <c r="AP390" s="2"/>
     </row>
-    <row r="391" spans="1:42">
+    <row r="391" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:42">
+    <row r="392" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:42">
+    <row r="393" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="1:42">
+    <row r="394" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="1:42">
+    <row r="395" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:42">
+    <row r="396" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="1:42">
+    <row r="397" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:42">
+    <row r="398" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="1:42">
+    <row r="399" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="1:42">
+    <row r="400" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
